--- a/suppl_data/SupplData4 - statistic_AFTR-orthologs_Streptomyces.xlsx
+++ b/suppl_data/SupplData4 - statistic_AFTR-orthologs_Streptomyces.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/_my/github/article-tta-codon/suppl_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106BC4C7-A3FF-F74B-BEB8-C00781CEF7C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECBFA79-B740-C34A-9EB5-20297288DCC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="1960" windowWidth="38400" windowHeight="18040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1960" windowWidth="38400" windowHeight="18040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unique_AFTR-orthologs_Streptomy" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="889">
   <si>
     <t>Without duplicate AFTR-orthologs</t>
   </si>
@@ -2485,27 +2485,6 @@
   </si>
   <si>
     <t>PVAEIARRANMSLRNFARVFRREVGTTPGQYVERTRIARARELLETTDLTIGQIAGRCGFAAPETFFRSFGRTLGLTPKEYRHRFQVISPSGLIDRHHETDRSPA</t>
-  </si>
-  <si>
-    <t>619598!76!-68;620103!581!-573</t>
-  </si>
-  <si>
-    <t>CGTCGAACTGCTCGTGGAGGTGCTCCAGCGCCCAGGCGACGACCTCGGCGAGCGGGTCGGCGCCGATCTCCTCGGGTAAAGAGCGGTCGAGGTAGCGCTCCTGGCCGCCGCTGCGGCGCGGCGGGACGACGAGCCGGCGGGCCAGCGCCCCCGCCGCGTCGGCGCCGTGGTCGGTGCGCACGATGTGCAGGCACAGGTCGATGCCGGCCGCCGTGCCCGCCGAGGTCAGGACGTCACCGTCGTCCACGAAGAGCTCCCTGGGGTCCACGTGGACCGAGGGGTAGCGCTTGGCGAGCGTCGGCGCGTACATCCAGTGGGTCGTGGCGGGTCTGCCGTCGAGCAGTCCCGCGGCGGCCAGTACGAAGGCACCGGTGCACAGCCCGACGATGCGGGCGCCCTCCTCGTGGGCCCGGCGCAGTGCGTCGAGGGCGGCCGGCGGCGGTGGCTGGGTGATGGACCGCCAGGCCGGTACGACGACGGTGCCGGCCCTGGAGAGCGCCTCCAGGCCGTACGGTGCGGTCAGTTCGAGGCCACCGGTTGTTCGCAATGGCACATCTTCGCCTGCGCAGACCAGCAGGCGGTAACGGGGAACTCCGGCGTCCTGCCGGTCGATCCCGAATACGGAGAGCGGAATGGAGCTTTCGAAGATCGGGCCGCCGCTGAACAGCAATACGGCGA</t>
-  </si>
-  <si>
-    <t>CTCGTGGAGGTGCTCCAGCGCCCAGGCGACGACCTCGGCGAGCGGGTCGGCGCCGATCTCCTCGGGTAAAGAGCGGTCGAGGTAGCGCTCCTGGCCGCCGCTGCGGCGCGGCGGGACGACGAGCCGGCGGGCCAGCGCCCCCGCCGCGTCGGCGCCGTGGTCGGTGCGCACGATGTGCAGGCACAGGTCGATGCCGGCCGCCGTGCCCGCCGAGGTCAGGACGTCACCGTCGTCCACGAAGAGCTCCCTGGGGTCCACGTGGACCGAGGGGTAGCGCTTGGCGAGCGTCGGCGCGTACATCCAGTGGGTCGTGGCGGGTCTGCCGTCGAGCAGTCCCGCGGCGGCCAGTACGAAGGCACCGGTGCACAGCCCGACGATGCGGGCGCCCTCCTCGTGGGCCCGGCGCAGTGCGTCGAGGGCGGCCGGCGGCGGTGGCTGGGTGATGGACCGCCAGGCCGGTACGACGACGGTGCCGGCCCTGGAGAGCGCCTCCAGGCCGTACGGTGCGGTCAGTTCGAGGCCACCGGTTGTTCGCAATGGCACATCTTCGCCTGCGCAGACCAGCAGGCGGTAACGGGGAACTCCGGCGTCCTGCCGGTCGATCCCGAATACGGAGAGCGGAATGGAGCTTTCGAAGATCGGGCCGCCGCTGAACAGCAATACGGCGAC</t>
-  </si>
-  <si>
-    <t>CGCCCGGTCGGGGCGGTCCGGCCGGCCGTCGGATCCGCCCTGCGGGCGCCGTGCCCGGTAGGCCGCCCGGTAGGCGGCCGGGGAGGACCCCAGCTGGCGGCGGAAGTGGCCGCGCAGGGCGACGGGCGACCGGAAGCCGCAGCGCCCGGCGACCTCGTCCACCGAGTAGTCCGAGGTCTCCAGCAGCCGCTGGGCCTGGAGGACCCGCTGGGTGATCAGCCACTGGAGCGGCGCGCTGCCGGTGAGCGAGCGGAACCTGCGGTCGAAGGTGCGGCGGCTCATATAGGCGCGGGCGGCCAGGGTCTCCAC</t>
-  </si>
-  <si>
-    <t>VAVLLFSGGPIFESSIPLSVFGIDRQDAGVPRYRLLVCAGEDVPLRTTGGLELTAPYGLEALSRAGTVVVPAWRSITQPPPPAALDALRRAHEEGARIVGLCTGAFVLAAAGLLDGRPATTHWMYAPTLAKRYPSVHVDPRELFVDDGDVLTSAGTAAGIDLCLHIVRTDHGADAAGALARRLVVPPRRSGGQERYLDRSLPEEIGADPLAEVVAWALEHLHE</t>
-  </si>
-  <si>
-    <t>VETLAARAYMSRRTFDRRFRSLTGSAPLQWLITQRVLQAQRLLETSDYSVDEVAGRCGFRSPVALRGHFRRQLGSSPAAYRAAYRARRPQGGSDGRPDRPDRA</t>
-  </si>
-  <si>
-    <t>GTCGAACTG</t>
   </si>
   <si>
     <t>CGGCTTGTCCAGGTTGCCCTGGATCCACTCCTGCGCCGCCCGGATCGGCGGGTGGTCGGCCAACTGCGCGTCGAGGACGGCGCTGTACTGGGACTGCCCGCCGTGCCGCTTGAGGAACAGCACCAGGAACCGTGCCGTCTCCAGCGCGAGCGCCGCCCCGTGATCGGCCTCCACCAGGGCCAGCGCCATGTCGATCCCCGTCGACACGCCCGCGGAGGTCACGAAGGGCCCGTCCCAGATGAAGATCGGCTCCGCGTCCACGGTCACGTCCGGGTAGCGGTGCGCCATCGCGTCGCTGTACGCCCAGTGCGTGGTGGCGCGTCTGCCGTCGAGCAGGCCCGCCTCGGCCAGCAGGAAGGAGCCGCCGCACACGGAGGCGACCCGGCGCGAGCGGGTCGCCGCCCCGCCGATCCAGGACACCAGCGCCCGGTCCCGCAACGCCGCGTCGAGGCTCCAGCCGCCCGGCACCAGGAGCGTGTCGATCGGCCCCTGGCCCGCGTCGAGCGGCGAGGCCTCCAGCACCACCCCCGAACTCATGCGCACCAGCGGTGCGTCGGCGGAGACGAAGTCGGTCCGGTAGGGGGTGCCCGAGGGCCCCAGCAGCCGGTTCGCCATGTCGAACACTTCAATAGGGCCGGTGATGTCCAGGGCCATCGCCCCCGCGTA</t>
@@ -2869,24 +2848,6 @@
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2937,6 +2898,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3320,10 +3299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X121"/>
+  <dimension ref="A1:X120"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C121" sqref="C4:C121"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3332,189 +3311,189 @@
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="3" width="44.1640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="4.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="3" customWidth="1"/>
     <col min="8" max="9" width="10.33203125" customWidth="1"/>
     <col min="10" max="11" width="9.83203125" customWidth="1"/>
     <col min="12" max="12" width="8.83203125" customWidth="1"/>
     <col min="13" max="13" width="8.5" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="5.1640625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.1640625" style="1" customWidth="1"/>
     <col min="18" max="18" width="30.5" customWidth="1"/>
     <col min="19" max="19" width="17.5" customWidth="1"/>
     <col min="20" max="20" width="15" customWidth="1"/>
     <col min="21" max="21" width="13.83203125" customWidth="1"/>
     <col min="22" max="22" width="16.33203125" customWidth="1"/>
     <col min="23" max="23" width="14.1640625" customWidth="1"/>
-    <col min="24" max="24" width="32.33203125" style="7" customWidth="1"/>
+    <col min="24" max="24" width="32.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10"/>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="3" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5" t="s">
+      <c r="A2" s="5"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="28"/>
+      <c r="J2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="28"/>
+      <c r="L2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
+      <c r="M2" s="30"/>
+      <c r="N2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2" t="s">
+      <c r="O2" s="30"/>
+      <c r="P2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="2" t="s">
+      <c r="Q2" s="30"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2" t="s">
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="2"/>
-      <c r="X2" s="1" t="s">
+      <c r="W2" s="30"/>
+      <c r="X2" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="15" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="16" t="s">
+      <c r="R3" s="29"/>
+      <c r="S3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="W3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="1"/>
+      <c r="X3" s="31"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
-        <v>1</v>
-      </c>
-      <c r="B4" s="17">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11">
         <v>1000074</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="19">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4">
@@ -3535,16 +3514,16 @@
       <c r="M4">
         <v>71.429000000000002</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="14">
         <v>1.5200000000000001E-132</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="14">
         <v>1.49E-66</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="1">
         <v>224</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="1">
         <v>189</v>
       </c>
       <c r="R4" t="s">
@@ -3565,30 +3544,30 @@
       <c r="W4" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="X4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="21">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="19">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5">
@@ -3609,16 +3588,16 @@
       <c r="M5">
         <v>73.626000000000005</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="14">
         <v>1.34E-139</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="14">
         <v>4.8999999999999999E-67</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="1">
         <v>224</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="1">
         <v>182</v>
       </c>
       <c r="T5" t="s">
@@ -3633,30 +3612,30 @@
       <c r="W5" t="s">
         <v>39</v>
       </c>
-      <c r="X5" s="7" t="s">
+      <c r="X5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="17">
+      <c r="A6" s="11">
         <v>3</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="11">
         <v>1000074</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="19">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="3">
         <v>1</v>
       </c>
       <c r="H6">
@@ -3677,16 +3656,16 @@
       <c r="M6">
         <v>71.277000000000001</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="14">
         <v>5.1599999999999999E-138</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="14">
         <v>1.2000000000000001E-66</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="1">
         <v>224</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="1">
         <v>188</v>
       </c>
       <c r="R6" t="s">
@@ -3707,30 +3686,30 @@
       <c r="W6" t="s">
         <v>48</v>
       </c>
-      <c r="X6" s="7" t="s">
+      <c r="X6" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A7" s="24">
+      <c r="A7" s="18">
         <v>4</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="19">
         <v>1000079</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="13">
         <v>-1</v>
       </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7">
@@ -3751,16 +3730,16 @@
       <c r="M7">
         <v>71.504999999999995</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="14">
         <v>5.0099999999999998E-136</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="14">
         <v>7.1299999999999998E-66</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="1">
         <v>224</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="1">
         <v>186</v>
       </c>
       <c r="R7" t="s">
@@ -3781,30 +3760,30 @@
       <c r="W7" t="s">
         <v>56</v>
       </c>
-      <c r="X7" s="7" t="s">
+      <c r="X7" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A8" s="24">
+      <c r="A8" s="18">
         <v>5</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="19">
         <v>1000079</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="13">
         <v>-1</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="2">
         <v>2</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="3">
         <v>1</v>
       </c>
       <c r="H8">
@@ -3825,16 +3804,16 @@
       <c r="M8">
         <v>81.212000000000003</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="14">
         <v>4.9899999999999996E-142</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="14">
         <v>1.3899999999999999E-71</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="1">
         <v>224</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="1">
         <v>165</v>
       </c>
       <c r="R8" t="s">
@@ -3855,30 +3834,30 @@
       <c r="W8" t="s">
         <v>65</v>
       </c>
-      <c r="X8" s="7" t="s">
+      <c r="X8" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A9" s="24">
+      <c r="A9" s="18">
         <v>6</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="19">
         <v>1000079</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D9" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="13">
         <v>-1</v>
       </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
         <v>1</v>
       </c>
       <c r="H9">
@@ -3899,16 +3878,16 @@
       <c r="M9">
         <v>70.936000000000007</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="14">
         <v>1.5800000000000001E-143</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="14">
         <v>9.1799999999999992E-72</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="1">
         <v>224</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="1">
         <v>203</v>
       </c>
       <c r="R9" t="s">
@@ -3929,30 +3908,30 @@
       <c r="W9" t="s">
         <v>73</v>
       </c>
-      <c r="X9" s="7" t="s">
+      <c r="X9" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A10" s="24">
+      <c r="A10" s="18">
         <v>7</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="19">
         <v>1000079</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D10" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="13">
         <v>-1</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="3">
         <v>1</v>
       </c>
       <c r="H10">
@@ -3973,16 +3952,16 @@
       <c r="M10">
         <v>79.650999999999996</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="14">
         <v>1.8000000000000002E-133</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10" s="14">
         <v>1.09E-66</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="1">
         <v>224</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="1">
         <v>172</v>
       </c>
       <c r="R10" t="s">
@@ -4003,30 +3982,30 @@
       <c r="W10" t="s">
         <v>81</v>
       </c>
-      <c r="X10" s="7" t="s">
+      <c r="X10" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
+      <c r="A11" s="11">
         <v>8</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="11">
         <v>1000074</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D11" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="19">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="E11" s="13">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
         <v>1</v>
       </c>
       <c r="H11">
@@ -4047,16 +4026,16 @@
       <c r="M11">
         <v>77.174000000000007</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="14">
         <v>2.7100000000000001E-144</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="14">
         <v>6.3499999999999997E-75</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="1">
         <v>224</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="1">
         <v>184</v>
       </c>
       <c r="R11" t="s">
@@ -4077,30 +4056,30 @@
       <c r="W11" t="s">
         <v>89</v>
       </c>
-      <c r="X11" s="7" t="s">
+      <c r="X11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A12" s="17">
+      <c r="A12" s="11">
         <v>9</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="11">
         <v>1000074</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D12" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="19">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8">
+      <c r="E12" s="13">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
         <v>2</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="3">
         <v>1</v>
       </c>
       <c r="H12">
@@ -4121,16 +4100,16 @@
       <c r="M12">
         <v>71.277000000000001</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="14">
         <v>6.0500000000000003E-121</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="14">
         <v>2.1100000000000001E-66</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="1">
         <v>227</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="1">
         <v>188</v>
       </c>
       <c r="R12" t="s">
@@ -4151,30 +4130,30 @@
       <c r="W12" t="s">
         <v>97</v>
       </c>
-      <c r="X12" s="7" t="s">
+      <c r="X12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A13" s="24">
+      <c r="A13" s="18">
         <v>10</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="19">
         <v>1000079</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="20" t="s">
         <v>98</v>
       </c>
       <c r="D13" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="13">
         <v>-1</v>
       </c>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
         <v>1</v>
       </c>
       <c r="H13">
@@ -4195,16 +4174,16 @@
       <c r="M13">
         <v>67.346999999999994</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13" s="14">
         <v>2.8099999999999998E-135</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13" s="14">
         <v>1.53E-69</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="1">
         <v>224</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="1">
         <v>196</v>
       </c>
       <c r="R13" t="s">
@@ -4225,30 +4204,30 @@
       <c r="W13" t="s">
         <v>105</v>
       </c>
-      <c r="X13" s="7" t="s">
+      <c r="X13" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A14" s="17">
+      <c r="A14" s="11">
         <v>11</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="11">
         <v>1000074</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="12" t="s">
         <v>106</v>
       </c>
       <c r="D14" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="19">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
         <v>1</v>
       </c>
       <c r="H14">
@@ -4269,16 +4248,16 @@
       <c r="M14">
         <v>100</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="14">
         <v>6.2899999999999997E-145</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="14">
         <v>3.0799999999999999E-110</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="1">
         <v>224</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="1">
         <v>173</v>
       </c>
       <c r="R14" t="s">
@@ -4299,30 +4278,30 @@
       <c r="W14" t="s">
         <v>113</v>
       </c>
-      <c r="X14" s="7" t="s">
+      <c r="X14" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A15" s="17">
+      <c r="A15" s="11">
         <v>12</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="11">
         <v>1000074</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="12" t="s">
         <v>114</v>
       </c>
       <c r="D15" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="19">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="E15" s="13">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
         <v>1</v>
       </c>
       <c r="H15">
@@ -4343,16 +4322,16 @@
       <c r="M15">
         <v>74.585999999999999</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="14">
         <v>5.5499999999999996E-143</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O15" s="14">
         <v>1.8299999999999999E-69</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="1">
         <v>224</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="1">
         <v>181</v>
       </c>
       <c r="R15" t="s">
@@ -4373,30 +4352,30 @@
       <c r="W15" t="s">
         <v>121</v>
       </c>
-      <c r="X15" s="7" t="s">
+      <c r="X15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A16" s="24">
+      <c r="A16" s="18">
         <v>13</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="19">
         <v>1000079</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="20" t="s">
         <v>122</v>
       </c>
       <c r="D16" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="13">
         <v>-1</v>
       </c>
-      <c r="F16" s="8">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
         <v>1</v>
       </c>
       <c r="H16">
@@ -4417,16 +4396,16 @@
       <c r="M16">
         <v>73.016000000000005</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="14">
         <v>2.8400000000000001E-142</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16" s="14">
         <v>1.4699999999999999E-68</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="1">
         <v>224</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="1">
         <v>189</v>
       </c>
       <c r="R16" t="s">
@@ -4447,30 +4426,30 @@
       <c r="W16" t="s">
         <v>129</v>
       </c>
-      <c r="X16" s="7" t="s">
+      <c r="X16" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A17" s="24">
+      <c r="A17" s="18">
         <v>14</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="19">
         <v>1000079</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="20" t="s">
         <v>130</v>
       </c>
       <c r="D17" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="13">
         <v>-1</v>
       </c>
-      <c r="F17" s="8">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
         <v>1</v>
       </c>
       <c r="H17">
@@ -4491,16 +4470,16 @@
       <c r="M17">
         <v>76.882000000000005</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17" s="14">
         <v>2.88E-144</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17" s="14">
         <v>1.7700000000000001E-75</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="1">
         <v>224</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="1">
         <v>186</v>
       </c>
       <c r="R17" t="s">
@@ -4521,30 +4500,30 @@
       <c r="W17" t="s">
         <v>137</v>
       </c>
-      <c r="X17" s="7" t="s">
+      <c r="X17" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A18" s="17">
+      <c r="A18" s="11">
         <v>15</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="11">
         <v>1000074</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="12" t="s">
         <v>138</v>
       </c>
       <c r="D18" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="19">
-        <v>1</v>
-      </c>
-      <c r="F18" s="8">
-        <v>1</v>
-      </c>
-      <c r="G18" s="9">
+      <c r="E18" s="13">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
         <v>1</v>
       </c>
       <c r="H18">
@@ -4565,16 +4544,16 @@
       <c r="M18">
         <v>70</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18" s="14">
         <v>6.6200000000000002E-143</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18" s="14">
         <v>1.5600000000000001E-70</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="1">
         <v>224</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="1">
         <v>200</v>
       </c>
       <c r="R18" t="s">
@@ -4595,30 +4574,30 @@
       <c r="W18" t="s">
         <v>145</v>
       </c>
-      <c r="X18" s="7" t="s">
+      <c r="X18" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A19" s="17">
+      <c r="A19" s="11">
         <v>16</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="11">
         <v>1000074</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="12" t="s">
         <v>146</v>
       </c>
       <c r="D19" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="8">
-        <v>1</v>
-      </c>
-      <c r="G19" s="9">
+      <c r="E19" s="13">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
         <v>1</v>
       </c>
       <c r="H19">
@@ -4639,16 +4618,16 @@
       <c r="M19">
         <v>76.63</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19" s="14">
         <v>1.03E-141</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19" s="14">
         <v>5.4800000000000004E-69</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="1">
         <v>224</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="1">
         <v>184</v>
       </c>
       <c r="R19" t="s">
@@ -4669,30 +4648,30 @@
       <c r="W19" t="s">
         <v>153</v>
       </c>
-      <c r="X19" s="7" t="s">
+      <c r="X19" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A20" s="21">
+      <c r="A20" s="15">
         <v>17</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="17" t="s">
         <v>154</v>
       </c>
       <c r="D20" t="s">
         <v>155</v>
       </c>
-      <c r="E20" s="19">
-        <v>1</v>
-      </c>
-      <c r="F20" s="8">
+      <c r="E20" s="13">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
         <v>0</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20">
@@ -4713,16 +4692,16 @@
       <c r="M20">
         <v>75.135000000000005</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20" s="14">
         <v>3.87E-143</v>
       </c>
-      <c r="O20" s="20">
+      <c r="O20" s="14">
         <v>1.0299999999999999E-68</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="1">
         <v>224</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Q20" s="1">
         <v>185</v>
       </c>
       <c r="T20" t="s">
@@ -4737,30 +4716,30 @@
       <c r="W20" t="s">
         <v>159</v>
       </c>
-      <c r="X20" s="7" t="s">
+      <c r="X20" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A21" s="24">
+      <c r="A21" s="18">
         <v>18</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="19">
         <v>1000079</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="20" t="s">
         <v>161</v>
       </c>
       <c r="D21" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="13">
         <v>-1</v>
       </c>
-      <c r="F21" s="8">
-        <v>1</v>
-      </c>
-      <c r="G21" s="9">
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
         <v>1</v>
       </c>
       <c r="H21">
@@ -4781,16 +4760,16 @@
       <c r="M21">
         <v>74.856999999999999</v>
       </c>
-      <c r="N21" s="20">
+      <c r="N21" s="14">
         <v>4.6800000000000003E-136</v>
       </c>
-      <c r="O21" s="20">
+      <c r="O21" s="14">
         <v>2.45E-67</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="1">
         <v>224</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="1">
         <v>175</v>
       </c>
       <c r="R21" t="s">
@@ -4811,30 +4790,30 @@
       <c r="W21" t="s">
         <v>168</v>
       </c>
-      <c r="X21" s="7" t="s">
+      <c r="X21" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A22" s="17">
+      <c r="A22" s="11">
         <v>19</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="11">
         <v>1000074</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="12" t="s">
         <v>169</v>
       </c>
       <c r="D22" t="s">
         <v>170</v>
       </c>
-      <c r="E22" s="19">
-        <v>1</v>
-      </c>
-      <c r="F22" s="8">
+      <c r="E22" s="13">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
         <v>2</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="3">
         <v>1</v>
       </c>
       <c r="H22">
@@ -4855,16 +4834,16 @@
       <c r="M22">
         <v>70.465999999999994</v>
       </c>
-      <c r="N22" s="20">
+      <c r="N22" s="14">
         <v>1.4799999999999999E-141</v>
       </c>
-      <c r="O22" s="20">
+      <c r="O22" s="14">
         <v>7.5799999999999998E-69</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="1">
         <v>224</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="Q22" s="1">
         <v>193</v>
       </c>
       <c r="R22" t="s">
@@ -4885,30 +4864,30 @@
       <c r="W22" t="s">
         <v>176</v>
       </c>
-      <c r="X22" s="7" t="s">
+      <c r="X22" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A23" s="17">
+      <c r="A23" s="11">
         <v>20</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="11">
         <v>1000074</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="12" t="s">
         <v>177</v>
       </c>
       <c r="D23" t="s">
         <v>178</v>
       </c>
-      <c r="E23" s="19">
-        <v>1</v>
-      </c>
-      <c r="F23" s="8">
-        <v>1</v>
-      </c>
-      <c r="G23" s="9">
+      <c r="E23" s="13">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
         <v>1</v>
       </c>
       <c r="H23">
@@ -4929,16 +4908,16 @@
       <c r="M23">
         <v>77.400999999999996</v>
       </c>
-      <c r="N23" s="20">
+      <c r="N23" s="14">
         <v>3.8399999999999999E-143</v>
       </c>
-      <c r="O23" s="20">
+      <c r="O23" s="14">
         <v>3.6099999999999999E-72</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="1">
         <v>224</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q23" s="1">
         <v>177</v>
       </c>
       <c r="R23" t="s">
@@ -4959,30 +4938,30 @@
       <c r="W23" t="s">
         <v>184</v>
       </c>
-      <c r="X23" s="7" t="s">
+      <c r="X23" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A24" s="24">
+      <c r="A24" s="18">
         <v>21</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="19">
         <v>1000079</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="20" t="s">
         <v>185</v>
       </c>
       <c r="D24" t="s">
         <v>186</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="13">
         <v>-1</v>
       </c>
-      <c r="F24" s="8">
-        <v>1</v>
-      </c>
-      <c r="G24" s="9">
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
         <v>1</v>
       </c>
       <c r="H24">
@@ -5003,16 +4982,16 @@
       <c r="M24">
         <v>70.442999999999998</v>
       </c>
-      <c r="N24" s="20">
+      <c r="N24" s="14">
         <v>1.9399999999999999E-141</v>
       </c>
-      <c r="O24" s="20">
+      <c r="O24" s="14">
         <v>4.9500000000000002E-67</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="1">
         <v>224</v>
       </c>
-      <c r="Q24" s="7">
+      <c r="Q24" s="1">
         <v>203</v>
       </c>
       <c r="R24" t="s">
@@ -5033,30 +5012,30 @@
       <c r="W24" t="s">
         <v>192</v>
       </c>
-      <c r="X24" s="7" t="s">
+      <c r="X24" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A25" s="17">
+      <c r="A25" s="11">
         <v>22</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="11">
         <v>1000074</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="12" t="s">
         <v>193</v>
       </c>
       <c r="D25" t="s">
         <v>194</v>
       </c>
-      <c r="E25" s="19">
-        <v>1</v>
-      </c>
-      <c r="F25" s="8">
-        <v>1</v>
-      </c>
-      <c r="G25" s="9">
+      <c r="E25" s="13">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
         <v>1</v>
       </c>
       <c r="H25">
@@ -5077,16 +5056,16 @@
       <c r="M25">
         <v>71.938999999999993</v>
       </c>
-      <c r="N25" s="20">
+      <c r="N25" s="14">
         <v>2.3899999999999999E-143</v>
       </c>
-      <c r="O25" s="20">
+      <c r="O25" s="14">
         <v>6.4999999999999995E-69</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="1">
         <v>224</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="Q25" s="1">
         <v>196</v>
       </c>
       <c r="R25" t="s">
@@ -5107,30 +5086,30 @@
       <c r="W25" t="s">
         <v>199</v>
       </c>
-      <c r="X25" s="7" t="s">
+      <c r="X25" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A26" s="24">
+      <c r="A26" s="18">
         <v>23</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="19">
         <v>1000079</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="20" t="s">
         <v>200</v>
       </c>
       <c r="D26" t="s">
         <v>201</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="13">
         <v>-1</v>
       </c>
-      <c r="F26" s="8">
-        <v>1</v>
-      </c>
-      <c r="G26" s="9">
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
         <v>1</v>
       </c>
       <c r="H26">
@@ -5151,16 +5130,16 @@
       <c r="M26">
         <v>73.513999999999996</v>
       </c>
-      <c r="N26" s="20">
+      <c r="N26" s="14">
         <v>1.6099999999999999E-135</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26" s="14">
         <v>1.0800000000000001E-67</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="1">
         <v>224</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="Q26" s="1">
         <v>185</v>
       </c>
       <c r="R26" t="s">
@@ -5181,30 +5160,30 @@
       <c r="W26" t="s">
         <v>207</v>
       </c>
-      <c r="X26" s="7" t="s">
+      <c r="X26" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A27" s="17">
+      <c r="A27" s="11">
         <v>24</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="11">
         <v>1000074</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="12" t="s">
         <v>208</v>
       </c>
       <c r="D27" t="s">
         <v>209</v>
       </c>
-      <c r="E27" s="19">
-        <v>1</v>
-      </c>
-      <c r="F27" s="8">
-        <v>1</v>
-      </c>
-      <c r="G27" s="9">
+      <c r="E27" s="13">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
         <v>1</v>
       </c>
       <c r="H27">
@@ -5225,16 +5204,16 @@
       <c r="M27">
         <v>71.727999999999994</v>
       </c>
-      <c r="N27" s="20">
+      <c r="N27" s="14">
         <v>1.5699999999999999E-138</v>
       </c>
-      <c r="O27" s="20">
+      <c r="O27" s="14">
         <v>6.8799999999999995E-70</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="1">
         <v>224</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q27" s="1">
         <v>191</v>
       </c>
       <c r="R27" t="s">
@@ -5255,30 +5234,30 @@
       <c r="W27" t="s">
         <v>215</v>
       </c>
-      <c r="X27" s="7" t="s">
+      <c r="X27" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A28" s="24">
+      <c r="A28" s="18">
         <v>25</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="19">
         <v>1000079</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="20" t="s">
         <v>216</v>
       </c>
       <c r="D28" t="s">
         <v>217</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="13">
         <v>-1</v>
       </c>
-      <c r="F28" s="8">
-        <v>1</v>
-      </c>
-      <c r="G28" s="9">
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
         <v>1</v>
       </c>
       <c r="H28">
@@ -5299,16 +5278,16 @@
       <c r="M28">
         <v>90.286000000000001</v>
       </c>
-      <c r="N28" s="20">
+      <c r="N28" s="14">
         <v>2.5799999999999999E-144</v>
       </c>
-      <c r="O28" s="20">
+      <c r="O28" s="14">
         <v>1.22E-84</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="1">
         <v>224</v>
       </c>
-      <c r="Q28" s="7">
+      <c r="Q28" s="1">
         <v>175</v>
       </c>
       <c r="R28" t="s">
@@ -5329,30 +5308,30 @@
       <c r="W28" t="s">
         <v>223</v>
       </c>
-      <c r="X28" s="7" t="s">
+      <c r="X28" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A29" s="17">
+      <c r="A29" s="11">
         <v>26</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="11">
         <v>1000074</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="12" t="s">
         <v>224</v>
       </c>
       <c r="D29" t="s">
         <v>225</v>
       </c>
-      <c r="E29" s="19">
-        <v>1</v>
-      </c>
-      <c r="F29" s="8">
-        <v>1</v>
-      </c>
-      <c r="G29" s="9">
+      <c r="E29" s="13">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
         <v>1</v>
       </c>
       <c r="H29">
@@ -5373,16 +5352,16 @@
       <c r="M29">
         <v>73.298000000000002</v>
       </c>
-      <c r="N29" s="20">
+      <c r="N29" s="14">
         <v>9.7099999999999998E-144</v>
       </c>
-      <c r="O29" s="20">
+      <c r="O29" s="14">
         <v>6.7500000000000003E-73</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P29" s="1">
         <v>224</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="Q29" s="1">
         <v>191</v>
       </c>
       <c r="R29" t="s">
@@ -5403,30 +5382,30 @@
       <c r="W29" t="s">
         <v>231</v>
       </c>
-      <c r="X29" s="7" t="s">
+      <c r="X29" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A30" s="17">
+      <c r="A30" s="11">
         <v>27</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="11">
         <v>1000074</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="12" t="s">
         <v>232</v>
       </c>
       <c r="D30" t="s">
         <v>233</v>
       </c>
-      <c r="E30" s="19">
-        <v>1</v>
-      </c>
-      <c r="F30" s="8">
-        <v>1</v>
-      </c>
-      <c r="G30" s="9">
+      <c r="E30" s="13">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
         <v>1</v>
       </c>
       <c r="H30">
@@ -5447,16 +5426,16 @@
       <c r="M30">
         <v>71.727999999999994</v>
       </c>
-      <c r="N30" s="20">
+      <c r="N30" s="14">
         <v>2.6599999999999999E-146</v>
       </c>
-      <c r="O30" s="20">
+      <c r="O30" s="14">
         <v>2.8599999999999999E-72</v>
       </c>
-      <c r="P30" s="7">
+      <c r="P30" s="1">
         <v>224</v>
       </c>
-      <c r="Q30" s="7">
+      <c r="Q30" s="1">
         <v>191</v>
       </c>
       <c r="R30" t="s">
@@ -5477,30 +5456,30 @@
       <c r="W30" t="s">
         <v>239</v>
       </c>
-      <c r="X30" s="7" t="s">
+      <c r="X30" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A31" s="24">
+      <c r="A31" s="18">
         <v>28</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="19">
         <v>1000079</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="20" t="s">
         <v>240</v>
       </c>
       <c r="D31" t="s">
         <v>241</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="13">
         <v>-1</v>
       </c>
-      <c r="F31" s="8">
-        <v>1</v>
-      </c>
-      <c r="G31" s="9">
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
         <v>1</v>
       </c>
       <c r="H31">
@@ -5521,16 +5500,16 @@
       <c r="M31">
         <v>74.611000000000004</v>
       </c>
-      <c r="N31" s="20">
+      <c r="N31" s="14">
         <v>1.24E-152</v>
       </c>
-      <c r="O31" s="20">
+      <c r="O31" s="14">
         <v>1.5400000000000001E-76</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P31" s="1">
         <v>224</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="Q31" s="1">
         <v>193</v>
       </c>
       <c r="R31" t="s">
@@ -5551,30 +5530,30 @@
       <c r="W31" t="s">
         <v>247</v>
       </c>
-      <c r="X31" s="7" t="s">
+      <c r="X31" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A32" s="21">
+      <c r="A32" s="15">
         <v>29</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="17" t="s">
         <v>248</v>
       </c>
       <c r="D32" t="s">
         <v>249</v>
       </c>
-      <c r="E32" s="19">
-        <v>1</v>
-      </c>
-      <c r="F32" s="8">
-        <v>1</v>
-      </c>
-      <c r="G32" s="9">
+      <c r="E32" s="13">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
         <v>1</v>
       </c>
       <c r="H32">
@@ -5595,16 +5574,16 @@
       <c r="M32">
         <v>71.795000000000002</v>
       </c>
-      <c r="N32" s="20">
+      <c r="N32" s="14">
         <v>1.13E-143</v>
       </c>
-      <c r="O32" s="20">
+      <c r="O32" s="14">
         <v>2.5899999999999998E-69</v>
       </c>
-      <c r="P32" s="7">
+      <c r="P32" s="1">
         <v>224</v>
       </c>
-      <c r="Q32" s="7">
+      <c r="Q32" s="1">
         <v>195</v>
       </c>
       <c r="R32" t="s">
@@ -5625,30 +5604,30 @@
       <c r="W32" t="s">
         <v>254</v>
       </c>
-      <c r="X32" s="7" t="s">
+      <c r="X32" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A33" s="24">
+      <c r="A33" s="18">
         <v>30</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="19">
         <v>1000079</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="20" t="s">
         <v>255</v>
       </c>
       <c r="D33" t="s">
         <v>256</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="13">
         <v>-1</v>
       </c>
-      <c r="F33" s="8">
-        <v>1</v>
-      </c>
-      <c r="G33" s="9">
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
         <v>1</v>
       </c>
       <c r="H33">
@@ -5669,16 +5648,16 @@
       <c r="M33">
         <v>73.626000000000005</v>
       </c>
-      <c r="N33" s="20">
+      <c r="N33" s="14">
         <v>1.14E-134</v>
       </c>
-      <c r="O33" s="20">
+      <c r="O33" s="14">
         <v>5.94E-67</v>
       </c>
-      <c r="P33" s="7">
+      <c r="P33" s="1">
         <v>224</v>
       </c>
-      <c r="Q33" s="7">
+      <c r="Q33" s="1">
         <v>182</v>
       </c>
       <c r="R33" t="s">
@@ -5699,30 +5678,30 @@
       <c r="W33" t="s">
         <v>262</v>
       </c>
-      <c r="X33" s="7" t="s">
+      <c r="X33" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A34" s="24">
+      <c r="A34" s="18">
         <v>31</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="19">
         <v>1000079</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="20" t="s">
         <v>263</v>
       </c>
       <c r="D34" t="s">
         <v>264</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="13">
         <v>-1</v>
       </c>
-      <c r="F34" s="8">
-        <v>1</v>
-      </c>
-      <c r="G34" s="9">
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
         <v>1</v>
       </c>
       <c r="H34">
@@ -5743,16 +5722,16 @@
       <c r="M34">
         <v>75</v>
       </c>
-      <c r="N34" s="20">
+      <c r="N34" s="14">
         <v>9.9599999999999996E-142</v>
       </c>
-      <c r="O34" s="20">
+      <c r="O34" s="14">
         <v>3.8500000000000002E-67</v>
       </c>
-      <c r="P34" s="7">
+      <c r="P34" s="1">
         <v>224</v>
       </c>
-      <c r="Q34" s="7">
+      <c r="Q34" s="1">
         <v>184</v>
       </c>
       <c r="R34" t="s">
@@ -5773,30 +5752,30 @@
       <c r="W34" t="s">
         <v>270</v>
       </c>
-      <c r="X34" s="7" t="s">
+      <c r="X34" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A35" s="17">
+      <c r="A35" s="11">
         <v>32</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="11">
         <v>1000074</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="12" t="s">
         <v>271</v>
       </c>
       <c r="D35" t="s">
         <v>272</v>
       </c>
-      <c r="E35" s="19">
-        <v>1</v>
-      </c>
-      <c r="F35" s="8">
-        <v>1</v>
-      </c>
-      <c r="G35" s="9">
+      <c r="E35" s="13">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
         <v>1</v>
       </c>
       <c r="H35">
@@ -5817,16 +5796,16 @@
       <c r="M35">
         <v>74.010999999999996</v>
       </c>
-      <c r="N35" s="20">
+      <c r="N35" s="14">
         <v>4.0400000000000003E-135</v>
       </c>
-      <c r="O35" s="20">
+      <c r="O35" s="14">
         <v>1.4100000000000001E-65</v>
       </c>
-      <c r="P35" s="7">
+      <c r="P35" s="1">
         <v>224</v>
       </c>
-      <c r="Q35" s="7">
+      <c r="Q35" s="1">
         <v>177</v>
       </c>
       <c r="R35" t="s">
@@ -5847,30 +5826,30 @@
       <c r="W35" t="s">
         <v>277</v>
       </c>
-      <c r="X35" s="7" t="s">
+      <c r="X35" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A36" s="17">
+      <c r="A36" s="11">
         <v>33</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="11">
         <v>1000074</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="12" t="s">
         <v>278</v>
       </c>
       <c r="D36" t="s">
         <v>279</v>
       </c>
-      <c r="E36" s="19">
-        <v>1</v>
-      </c>
-      <c r="F36" s="8">
-        <v>1</v>
-      </c>
-      <c r="G36" s="9">
+      <c r="E36" s="13">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
         <v>1</v>
       </c>
       <c r="H36">
@@ -5891,16 +5870,16 @@
       <c r="M36">
         <v>86.932000000000002</v>
       </c>
-      <c r="N36" s="20">
+      <c r="N36" s="14">
         <v>5.0100000000000001E-144</v>
       </c>
-      <c r="O36" s="20">
+      <c r="O36" s="14">
         <v>1.0100000000000001E-85</v>
       </c>
-      <c r="P36" s="7">
+      <c r="P36" s="1">
         <v>224</v>
       </c>
-      <c r="Q36" s="7">
+      <c r="Q36" s="1">
         <v>176</v>
       </c>
       <c r="R36" t="s">
@@ -5921,30 +5900,30 @@
       <c r="W36" t="s">
         <v>285</v>
       </c>
-      <c r="X36" s="7" t="s">
+      <c r="X36" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A37" s="24">
+      <c r="A37" s="18">
         <v>34</v>
       </c>
-      <c r="B37" s="25">
+      <c r="B37" s="19">
         <v>1000079</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="20" t="s">
         <v>286</v>
       </c>
       <c r="D37" t="s">
         <v>287</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="13">
         <v>-1</v>
       </c>
-      <c r="F37" s="8">
-        <v>1</v>
-      </c>
-      <c r="G37" s="9">
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
         <v>1</v>
       </c>
       <c r="H37">
@@ -5965,16 +5944,16 @@
       <c r="M37">
         <v>72.105000000000004</v>
       </c>
-      <c r="N37" s="20">
+      <c r="N37" s="14">
         <v>5.5599999999999996E-143</v>
       </c>
-      <c r="O37" s="20">
+      <c r="O37" s="14">
         <v>1.0699999999999999E-69</v>
       </c>
-      <c r="P37" s="7">
+      <c r="P37" s="1">
         <v>224</v>
       </c>
-      <c r="Q37" s="7">
+      <c r="Q37" s="1">
         <v>190</v>
       </c>
       <c r="R37" t="s">
@@ -5995,30 +5974,30 @@
       <c r="W37" t="s">
         <v>293</v>
       </c>
-      <c r="X37" s="7" t="s">
+      <c r="X37" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A38" s="17">
+      <c r="A38" s="11">
         <v>35</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="11">
         <v>1000074</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="12" t="s">
         <v>294</v>
       </c>
       <c r="D38" t="s">
         <v>295</v>
       </c>
-      <c r="E38" s="19">
-        <v>1</v>
-      </c>
-      <c r="F38" s="8">
+      <c r="E38" s="13">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
         <v>2</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="3">
         <v>1</v>
       </c>
       <c r="H38">
@@ -6039,16 +6018,16 @@
       <c r="M38">
         <v>72.677999999999997</v>
       </c>
-      <c r="N38" s="20">
+      <c r="N38" s="14">
         <v>2.6399999999999999E-139</v>
       </c>
-      <c r="O38" s="20">
+      <c r="O38" s="14">
         <v>1.2700000000000001E-75</v>
       </c>
-      <c r="P38" s="7">
+      <c r="P38" s="1">
         <v>224</v>
       </c>
-      <c r="Q38" s="7">
+      <c r="Q38" s="1">
         <v>183</v>
       </c>
       <c r="R38" t="s">
@@ -6069,30 +6048,30 @@
       <c r="W38" t="s">
         <v>301</v>
       </c>
-      <c r="X38" s="7" t="s">
+      <c r="X38" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A39" s="24">
+      <c r="A39" s="18">
         <v>36</v>
       </c>
-      <c r="B39" s="25">
+      <c r="B39" s="19">
         <v>1000079</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="20" t="s">
         <v>302</v>
       </c>
       <c r="D39" t="s">
         <v>303</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="13">
         <v>-1</v>
       </c>
-      <c r="F39" s="8">
-        <v>1</v>
-      </c>
-      <c r="G39" s="9">
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
         <v>1</v>
       </c>
       <c r="H39">
@@ -6113,16 +6092,16 @@
       <c r="M39">
         <v>73.403999999999996</v>
       </c>
-      <c r="N39" s="20">
+      <c r="N39" s="14">
         <v>6.0100000000000005E-141</v>
       </c>
-      <c r="O39" s="20">
+      <c r="O39" s="14">
         <v>1.0299999999999999E-68</v>
       </c>
-      <c r="P39" s="7">
+      <c r="P39" s="1">
         <v>224</v>
       </c>
-      <c r="Q39" s="7">
+      <c r="Q39" s="1">
         <v>188</v>
       </c>
       <c r="R39" t="s">
@@ -6143,30 +6122,30 @@
       <c r="W39" t="s">
         <v>309</v>
       </c>
-      <c r="X39" s="7" t="s">
+      <c r="X39" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A40" s="17">
+      <c r="A40" s="11">
         <v>37</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="11">
         <v>1000074</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="12" t="s">
         <v>310</v>
       </c>
       <c r="D40" t="s">
         <v>311</v>
       </c>
-      <c r="E40" s="19">
-        <v>1</v>
-      </c>
-      <c r="F40" s="8">
-        <v>1</v>
-      </c>
-      <c r="G40" s="9">
+      <c r="E40" s="13">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
         <v>1</v>
       </c>
       <c r="H40">
@@ -6187,16 +6166,16 @@
       <c r="M40">
         <v>74.602999999999994</v>
       </c>
-      <c r="N40" s="20">
+      <c r="N40" s="14">
         <v>2.45E-141</v>
       </c>
-      <c r="O40" s="20">
+      <c r="O40" s="14">
         <v>1.59E-72</v>
       </c>
-      <c r="P40" s="7">
+      <c r="P40" s="1">
         <v>224</v>
       </c>
-      <c r="Q40" s="7">
+      <c r="Q40" s="1">
         <v>189</v>
       </c>
       <c r="R40" t="s">
@@ -6217,30 +6196,30 @@
       <c r="W40" t="s">
         <v>317</v>
       </c>
-      <c r="X40" s="7" t="s">
+      <c r="X40" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A41" s="24">
+      <c r="A41" s="18">
         <v>38</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="19">
         <v>1000079</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="20" t="s">
         <v>318</v>
       </c>
       <c r="D41" t="s">
         <v>319</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="13">
         <v>-1</v>
       </c>
-      <c r="F41" s="8">
-        <v>1</v>
-      </c>
-      <c r="G41" s="9">
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
         <v>1</v>
       </c>
       <c r="H41">
@@ -6261,16 +6240,16 @@
       <c r="M41">
         <v>71.578999999999994</v>
       </c>
-      <c r="N41" s="20">
+      <c r="N41" s="14">
         <v>3.9600000000000003E-138</v>
       </c>
-      <c r="O41" s="20">
+      <c r="O41" s="14">
         <v>1.5099999999999999E-76</v>
       </c>
-      <c r="P41" s="7">
+      <c r="P41" s="1">
         <v>224</v>
       </c>
-      <c r="Q41" s="7">
+      <c r="Q41" s="1">
         <v>190</v>
       </c>
       <c r="R41" t="s">
@@ -6291,30 +6270,30 @@
       <c r="W41" t="s">
         <v>325</v>
       </c>
-      <c r="X41" s="7" t="s">
+      <c r="X41" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A42" s="17">
+      <c r="A42" s="11">
         <v>39</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="11">
         <v>1000074</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="12" t="s">
         <v>326</v>
       </c>
       <c r="D42" t="s">
         <v>327</v>
       </c>
-      <c r="E42" s="19">
-        <v>1</v>
-      </c>
-      <c r="F42" s="8">
-        <v>1</v>
-      </c>
-      <c r="G42" s="9">
+      <c r="E42" s="13">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
         <v>1</v>
       </c>
       <c r="H42">
@@ -6335,16 +6314,16 @@
       <c r="M42">
         <v>68.965999999999994</v>
       </c>
-      <c r="N42" s="20">
+      <c r="N42" s="14">
         <v>3.0900000000000003E-144</v>
       </c>
-      <c r="O42" s="20">
+      <c r="O42" s="14">
         <v>1.04E-69</v>
       </c>
-      <c r="P42" s="7">
+      <c r="P42" s="1">
         <v>224</v>
       </c>
-      <c r="Q42" s="7">
+      <c r="Q42" s="1">
         <v>203</v>
       </c>
       <c r="R42" t="s">
@@ -6365,30 +6344,30 @@
       <c r="W42" t="s">
         <v>333</v>
       </c>
-      <c r="X42" s="7" t="s">
+      <c r="X42" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A43" s="17">
+      <c r="A43" s="11">
         <v>40</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="11">
         <v>1000074</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="12" t="s">
         <v>334</v>
       </c>
       <c r="D43" t="s">
         <v>335</v>
       </c>
-      <c r="E43" s="19">
-        <v>1</v>
-      </c>
-      <c r="F43" s="8">
-        <v>1</v>
-      </c>
-      <c r="G43" s="9">
+      <c r="E43" s="13">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
         <v>1</v>
       </c>
       <c r="H43">
@@ -6409,16 +6388,16 @@
       <c r="M43">
         <v>74.176000000000002</v>
       </c>
-      <c r="N43" s="20">
+      <c r="N43" s="14">
         <v>3.2400000000000001E-141</v>
       </c>
-      <c r="O43" s="20">
+      <c r="O43" s="14">
         <v>4.0299999999999999E-69</v>
       </c>
-      <c r="P43" s="7">
+      <c r="P43" s="1">
         <v>224</v>
       </c>
-      <c r="Q43" s="7">
+      <c r="Q43" s="1">
         <v>182</v>
       </c>
       <c r="R43" t="s">
@@ -6439,30 +6418,30 @@
       <c r="W43" t="s">
         <v>341</v>
       </c>
-      <c r="X43" s="7" t="s">
+      <c r="X43" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A44" s="21">
+      <c r="A44" s="15">
         <v>41</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="17" t="s">
         <v>342</v>
       </c>
       <c r="D44" t="s">
         <v>343</v>
       </c>
-      <c r="E44" s="19">
-        <v>1</v>
-      </c>
-      <c r="F44" s="8">
-        <v>1</v>
-      </c>
-      <c r="G44" s="9">
+      <c r="E44" s="13">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
         <v>1</v>
       </c>
       <c r="H44">
@@ -6483,16 +6462,16 @@
       <c r="M44">
         <v>70.296999999999997</v>
       </c>
-      <c r="N44" s="20">
+      <c r="N44" s="14">
         <v>4.8799999999999999E-143</v>
       </c>
-      <c r="O44" s="20">
+      <c r="O44" s="14">
         <v>3.8699999999999999E-72</v>
       </c>
-      <c r="P44" s="7">
+      <c r="P44" s="1">
         <v>224</v>
       </c>
-      <c r="Q44" s="7">
+      <c r="Q44" s="1">
         <v>202</v>
       </c>
       <c r="R44" t="s">
@@ -6513,30 +6492,30 @@
       <c r="W44" t="s">
         <v>349</v>
       </c>
-      <c r="X44" s="7" t="s">
+      <c r="X44" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A45" s="24">
+      <c r="A45" s="18">
         <v>42</v>
       </c>
-      <c r="B45" s="25">
+      <c r="B45" s="19">
         <v>1000079</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="20" t="s">
         <v>350</v>
       </c>
       <c r="D45" t="s">
         <v>351</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="13">
         <v>-1</v>
       </c>
-      <c r="F45" s="8">
-        <v>1</v>
-      </c>
-      <c r="G45" s="9">
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
         <v>1</v>
       </c>
       <c r="H45">
@@ -6557,16 +6536,16 @@
       <c r="M45">
         <v>70.936000000000007</v>
       </c>
-      <c r="N45" s="20">
+      <c r="N45" s="14">
         <v>2.21E-139</v>
       </c>
-      <c r="O45" s="20">
+      <c r="O45" s="14">
         <v>1.0099999999999999E-70</v>
       </c>
-      <c r="P45" s="7">
+      <c r="P45" s="1">
         <v>224</v>
       </c>
-      <c r="Q45" s="7">
+      <c r="Q45" s="1">
         <v>203</v>
       </c>
       <c r="R45" t="s">
@@ -6587,30 +6566,30 @@
       <c r="W45" t="s">
         <v>357</v>
       </c>
-      <c r="X45" s="7" t="s">
+      <c r="X45" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A46" s="17">
+      <c r="A46" s="11">
         <v>43</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="11">
         <v>1000074</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="12" t="s">
         <v>358</v>
       </c>
       <c r="D46" t="s">
         <v>359</v>
       </c>
-      <c r="E46" s="19">
-        <v>1</v>
-      </c>
-      <c r="F46" s="8">
-        <v>1</v>
-      </c>
-      <c r="G46" s="9">
+      <c r="E46" s="13">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
         <v>1</v>
       </c>
       <c r="H46">
@@ -6631,16 +6610,16 @@
       <c r="M46">
         <v>74.444000000000003</v>
       </c>
-      <c r="N46" s="20">
+      <c r="N46" s="14">
         <v>4.1800000000000003E-135</v>
       </c>
-      <c r="O46" s="20">
+      <c r="O46" s="14">
         <v>3.6899999999999999E-69</v>
       </c>
-      <c r="P46" s="7">
+      <c r="P46" s="1">
         <v>224</v>
       </c>
-      <c r="Q46" s="7">
+      <c r="Q46" s="1">
         <v>180</v>
       </c>
       <c r="R46" t="s">
@@ -6661,30 +6640,30 @@
       <c r="W46" t="s">
         <v>365</v>
       </c>
-      <c r="X46" s="7" t="s">
+      <c r="X46" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A47" s="21">
+      <c r="A47" s="15">
         <v>44</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="17" t="s">
         <v>366</v>
       </c>
       <c r="D47" t="s">
         <v>367</v>
       </c>
-      <c r="E47" s="19">
-        <v>1</v>
-      </c>
-      <c r="F47" s="8">
-        <v>1</v>
-      </c>
-      <c r="G47" s="9">
+      <c r="E47" s="13">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
         <v>1</v>
       </c>
       <c r="H47">
@@ -6705,16 +6684,16 @@
       <c r="M47">
         <v>74.566000000000003</v>
       </c>
-      <c r="N47" s="20">
+      <c r="N47" s="14">
         <v>2.9600000000000002E-116</v>
       </c>
-      <c r="O47" s="20">
+      <c r="O47" s="14">
         <v>6.3700000000000002E-72</v>
       </c>
-      <c r="P47" s="7">
+      <c r="P47" s="1">
         <v>223</v>
       </c>
-      <c r="Q47" s="7">
+      <c r="Q47" s="1">
         <v>173</v>
       </c>
       <c r="R47" t="s">
@@ -6735,30 +6714,30 @@
       <c r="W47" t="s">
         <v>373</v>
       </c>
-      <c r="X47" s="7" t="s">
+      <c r="X47" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A48" s="17">
+      <c r="A48" s="11">
         <v>45</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="11">
         <v>1000074</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="12" t="s">
         <v>374</v>
       </c>
       <c r="D48" t="s">
         <v>375</v>
       </c>
-      <c r="E48" s="19">
-        <v>1</v>
-      </c>
-      <c r="F48" s="8">
-        <v>1</v>
-      </c>
-      <c r="G48" s="9">
+      <c r="E48" s="13">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
         <v>1</v>
       </c>
       <c r="H48">
@@ -6779,16 +6758,16 @@
       <c r="M48">
         <v>73.888999999999996</v>
       </c>
-      <c r="N48" s="20">
+      <c r="N48" s="14">
         <v>1.5200000000000001E-146</v>
       </c>
-      <c r="O48" s="20">
+      <c r="O48" s="14">
         <v>1.9500000000000002E-68</v>
       </c>
-      <c r="P48" s="7">
+      <c r="P48" s="1">
         <v>224</v>
       </c>
-      <c r="Q48" s="7">
+      <c r="Q48" s="1">
         <v>180</v>
       </c>
       <c r="R48" t="s">
@@ -6809,30 +6788,30 @@
       <c r="W48" t="s">
         <v>381</v>
       </c>
-      <c r="X48" s="7" t="s">
+      <c r="X48" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A49" s="24">
+      <c r="A49" s="18">
         <v>46</v>
       </c>
-      <c r="B49" s="25">
+      <c r="B49" s="19">
         <v>1000079</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="20" t="s">
         <v>382</v>
       </c>
       <c r="D49" t="s">
         <v>383</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="13">
         <v>-1</v>
       </c>
-      <c r="F49" s="8">
-        <v>1</v>
-      </c>
-      <c r="G49" s="9">
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3">
         <v>1</v>
       </c>
       <c r="H49">
@@ -6853,16 +6832,16 @@
       <c r="M49">
         <v>80.722999999999999</v>
       </c>
-      <c r="N49" s="20">
+      <c r="N49" s="14">
         <v>3.8400000000000002E-145</v>
       </c>
-      <c r="O49" s="20">
+      <c r="O49" s="14">
         <v>8.2900000000000005E-72</v>
       </c>
-      <c r="P49" s="7">
+      <c r="P49" s="1">
         <v>224</v>
       </c>
-      <c r="Q49" s="7">
+      <c r="Q49" s="1">
         <v>166</v>
       </c>
       <c r="R49" t="s">
@@ -6883,30 +6862,30 @@
       <c r="W49" t="s">
         <v>389</v>
       </c>
-      <c r="X49" s="7" t="s">
+      <c r="X49" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A50" s="17">
+      <c r="A50" s="11">
         <v>47</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="11">
         <v>1000074</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="12" t="s">
         <v>390</v>
       </c>
       <c r="D50" t="s">
         <v>391</v>
       </c>
-      <c r="E50" s="19">
-        <v>1</v>
-      </c>
-      <c r="F50" s="8">
+      <c r="E50" s="13">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
         <v>2</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="3">
         <v>1</v>
       </c>
       <c r="H50">
@@ -6927,16 +6906,16 @@
       <c r="M50">
         <v>70.352000000000004</v>
       </c>
-      <c r="N50" s="20">
+      <c r="N50" s="14">
         <v>6.0099999999999995E-144</v>
       </c>
-      <c r="O50" s="20">
+      <c r="O50" s="14">
         <v>3.8700000000000002E-71</v>
       </c>
-      <c r="P50" s="7">
+      <c r="P50" s="1">
         <v>224</v>
       </c>
-      <c r="Q50" s="7">
+      <c r="Q50" s="1">
         <v>199</v>
       </c>
       <c r="R50" t="s">
@@ -6957,30 +6936,30 @@
       <c r="W50" t="s">
         <v>397</v>
       </c>
-      <c r="X50" s="7" t="s">
+      <c r="X50" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A51" s="21">
+      <c r="A51" s="15">
         <v>48</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="17" t="s">
         <v>398</v>
       </c>
       <c r="D51" t="s">
         <v>399</v>
       </c>
-      <c r="E51" s="19">
-        <v>1</v>
-      </c>
-      <c r="F51" s="8">
-        <v>1</v>
-      </c>
-      <c r="G51" s="9">
+      <c r="E51" s="13">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
         <v>0</v>
       </c>
       <c r="H51">
@@ -7001,16 +6980,16 @@
       <c r="M51">
         <v>65.179000000000002</v>
       </c>
-      <c r="N51" s="20">
+      <c r="N51" s="14">
         <v>1.6199999999999999E-140</v>
       </c>
-      <c r="O51" s="20">
+      <c r="O51" s="14">
         <v>5.7699999999999996E-68</v>
       </c>
-      <c r="P51" s="7">
+      <c r="P51" s="1">
         <v>224</v>
       </c>
-      <c r="Q51" s="7">
+      <c r="Q51" s="1">
         <v>224</v>
       </c>
       <c r="R51" t="s">
@@ -7031,30 +7010,30 @@
       <c r="W51" t="s">
         <v>405</v>
       </c>
-      <c r="X51" s="7" t="s">
+      <c r="X51" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A52" s="24">
+      <c r="A52" s="18">
         <v>49</v>
       </c>
-      <c r="B52" s="25">
+      <c r="B52" s="19">
         <v>1000079</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="20" t="s">
         <v>406</v>
       </c>
       <c r="D52" t="s">
         <v>407</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E52" s="13">
         <v>-1</v>
       </c>
-      <c r="F52" s="8">
-        <v>1</v>
-      </c>
-      <c r="G52" s="9">
+      <c r="F52" s="2">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
         <v>1</v>
       </c>
       <c r="H52">
@@ -7075,16 +7054,16 @@
       <c r="M52">
         <v>64.864999999999995</v>
       </c>
-      <c r="N52" s="20">
+      <c r="N52" s="14">
         <v>3.1899999999999998E-135</v>
       </c>
-      <c r="O52" s="20">
+      <c r="O52" s="14">
         <v>1.7200000000000001E-65</v>
       </c>
-      <c r="P52" s="7">
+      <c r="P52" s="1">
         <v>224</v>
       </c>
-      <c r="Q52" s="7">
+      <c r="Q52" s="1">
         <v>222</v>
       </c>
       <c r="R52" t="s">
@@ -7105,30 +7084,30 @@
       <c r="W52" t="s">
         <v>413</v>
       </c>
-      <c r="X52" s="7" t="s">
+      <c r="X52" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A53" s="17">
+      <c r="A53" s="11">
         <v>50</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="11">
         <v>1000074</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="12" t="s">
         <v>414</v>
       </c>
       <c r="D53" t="s">
         <v>415</v>
       </c>
-      <c r="E53" s="19">
-        <v>1</v>
-      </c>
-      <c r="F53" s="8">
-        <v>1</v>
-      </c>
-      <c r="G53" s="9">
+      <c r="E53" s="13">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
         <v>1</v>
       </c>
       <c r="H53">
@@ -7149,16 +7128,16 @@
       <c r="M53">
         <v>69.524000000000001</v>
       </c>
-      <c r="N53" s="20">
+      <c r="N53" s="14">
         <v>1.6499999999999999E-145</v>
       </c>
-      <c r="O53" s="20">
+      <c r="O53" s="14">
         <v>7.7799999999999998E-71</v>
       </c>
-      <c r="P53" s="7">
+      <c r="P53" s="1">
         <v>224</v>
       </c>
-      <c r="Q53" s="7">
+      <c r="Q53" s="1">
         <v>210</v>
       </c>
       <c r="R53" t="s">
@@ -7179,30 +7158,30 @@
       <c r="W53" t="s">
         <v>421</v>
       </c>
-      <c r="X53" s="7" t="s">
+      <c r="X53" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A54" s="17">
+      <c r="A54" s="11">
         <v>51</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B54" s="11">
         <v>1000074</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="12" t="s">
         <v>422</v>
       </c>
       <c r="D54" t="s">
         <v>423</v>
       </c>
-      <c r="E54" s="19">
-        <v>1</v>
-      </c>
-      <c r="F54" s="8">
+      <c r="E54" s="13">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
         <v>2</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="3">
         <v>1</v>
       </c>
       <c r="H54">
@@ -7223,16 +7202,16 @@
       <c r="M54">
         <v>70.296999999999997</v>
       </c>
-      <c r="N54" s="20">
+      <c r="N54" s="14">
         <v>5.1900000000000001E-138</v>
       </c>
-      <c r="O54" s="20">
+      <c r="O54" s="14">
         <v>3.16E-71</v>
       </c>
-      <c r="P54" s="7">
+      <c r="P54" s="1">
         <v>224</v>
       </c>
-      <c r="Q54" s="7">
+      <c r="Q54" s="1">
         <v>202</v>
       </c>
       <c r="R54" t="s">
@@ -7253,30 +7232,30 @@
       <c r="W54" t="s">
         <v>429</v>
       </c>
-      <c r="X54" s="7" t="s">
+      <c r="X54" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A55" s="17">
+      <c r="A55" s="11">
         <v>52</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="11">
         <v>1000074</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="12" t="s">
         <v>430</v>
       </c>
       <c r="D55" t="s">
         <v>431</v>
       </c>
-      <c r="E55" s="19">
-        <v>1</v>
-      </c>
-      <c r="F55" s="8">
-        <v>1</v>
-      </c>
-      <c r="G55" s="9">
+      <c r="E55" s="13">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3">
         <v>1</v>
       </c>
       <c r="H55">
@@ -7297,16 +7276,16 @@
       <c r="M55">
         <v>100</v>
       </c>
-      <c r="N55" s="20">
+      <c r="N55" s="14">
         <v>1.98E-146</v>
       </c>
-      <c r="O55" s="20">
+      <c r="O55" s="14">
         <v>1.5500000000000001E-130</v>
       </c>
-      <c r="P55" s="7">
+      <c r="P55" s="1">
         <v>224</v>
       </c>
-      <c r="Q55" s="7">
+      <c r="Q55" s="1">
         <v>202</v>
       </c>
       <c r="R55" t="s">
@@ -7327,30 +7306,30 @@
       <c r="W55" t="s">
         <v>437</v>
       </c>
-      <c r="X55" s="7" t="s">
+      <c r="X55" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A56" s="17">
+      <c r="A56" s="11">
         <v>53</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B56" s="11">
         <v>1000074</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="12" t="s">
         <v>438</v>
       </c>
       <c r="D56" t="s">
         <v>439</v>
       </c>
-      <c r="E56" s="19">
-        <v>1</v>
-      </c>
-      <c r="F56" s="8">
-        <v>1</v>
-      </c>
-      <c r="G56" s="9">
+      <c r="E56" s="13">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
         <v>1</v>
       </c>
       <c r="H56">
@@ -7371,16 +7350,16 @@
       <c r="M56">
         <v>70.873999999999995</v>
       </c>
-      <c r="N56" s="20">
+      <c r="N56" s="14">
         <v>1.1800000000000001E-145</v>
       </c>
-      <c r="O56" s="20">
+      <c r="O56" s="14">
         <v>5.2899999999999998E-73</v>
       </c>
-      <c r="P56" s="7">
+      <c r="P56" s="1">
         <v>224</v>
       </c>
-      <c r="Q56" s="7">
+      <c r="Q56" s="1">
         <v>206</v>
       </c>
       <c r="R56" t="s">
@@ -7401,30 +7380,30 @@
       <c r="W56" t="s">
         <v>445</v>
       </c>
-      <c r="X56" s="7" t="s">
+      <c r="X56" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A57" s="24">
+      <c r="A57" s="18">
         <v>54</v>
       </c>
-      <c r="B57" s="25">
+      <c r="B57" s="19">
         <v>1000079</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="20" t="s">
         <v>446</v>
       </c>
       <c r="D57" t="s">
         <v>447</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E57" s="13">
         <v>-1</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F57" s="2">
         <v>2</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="3">
         <v>1</v>
       </c>
       <c r="H57">
@@ -7445,16 +7424,16 @@
       <c r="M57">
         <v>68.965999999999994</v>
       </c>
-      <c r="N57" s="20">
+      <c r="N57" s="14">
         <v>1.0800000000000001E-140</v>
       </c>
-      <c r="O57" s="20">
+      <c r="O57" s="14">
         <v>2.17E-68</v>
       </c>
-      <c r="P57" s="7">
+      <c r="P57" s="1">
         <v>224</v>
       </c>
-      <c r="Q57" s="7">
+      <c r="Q57" s="1">
         <v>203</v>
       </c>
       <c r="R57" t="s">
@@ -7475,30 +7454,30 @@
       <c r="W57" t="s">
         <v>453</v>
       </c>
-      <c r="X57" s="7" t="s">
+      <c r="X57" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A58" s="17">
+      <c r="A58" s="11">
         <v>55</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="11">
         <v>1000074</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="12" t="s">
         <v>454</v>
       </c>
       <c r="D58" t="s">
         <v>455</v>
       </c>
-      <c r="E58" s="19">
-        <v>1</v>
-      </c>
-      <c r="F58" s="8">
-        <v>1</v>
-      </c>
-      <c r="G58" s="9">
+      <c r="E58" s="13">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3">
         <v>1</v>
       </c>
       <c r="H58">
@@ -7519,16 +7498,16 @@
       <c r="M58">
         <v>63.506999999999998</v>
       </c>
-      <c r="N58" s="20">
+      <c r="N58" s="14">
         <v>4.2299999999999998E-132</v>
       </c>
-      <c r="O58" s="20">
+      <c r="O58" s="14">
         <v>2.4000000000000002E-65</v>
       </c>
-      <c r="P58" s="7">
+      <c r="P58" s="1">
         <v>224</v>
       </c>
-      <c r="Q58" s="7">
+      <c r="Q58" s="1">
         <v>211</v>
       </c>
       <c r="R58" t="s">
@@ -7549,30 +7528,30 @@
       <c r="W58" t="s">
         <v>461</v>
       </c>
-      <c r="X58" s="7" t="s">
+      <c r="X58" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A59" s="24">
+      <c r="A59" s="18">
         <v>56</v>
       </c>
-      <c r="B59" s="25">
+      <c r="B59" s="19">
         <v>1000079</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="20" t="s">
         <v>462</v>
       </c>
       <c r="D59" t="s">
         <v>463</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E59" s="13">
         <v>-1</v>
       </c>
-      <c r="F59" s="8">
+      <c r="F59" s="2">
         <v>2</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59" s="3">
         <v>1</v>
       </c>
       <c r="H59">
@@ -7593,16 +7572,16 @@
       <c r="M59">
         <v>68.159000000000006</v>
       </c>
-      <c r="N59" s="20">
+      <c r="N59" s="14">
         <v>4.5500000000000002E-120</v>
       </c>
-      <c r="O59" s="20">
+      <c r="O59" s="14">
         <v>3.9899999999999998E-66</v>
       </c>
-      <c r="P59" s="7">
+      <c r="P59" s="1">
         <v>226</v>
       </c>
-      <c r="Q59" s="7">
+      <c r="Q59" s="1">
         <v>201</v>
       </c>
       <c r="R59" t="s">
@@ -7623,30 +7602,30 @@
       <c r="W59" t="s">
         <v>469</v>
       </c>
-      <c r="X59" s="7" t="s">
+      <c r="X59" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A60" s="17">
+      <c r="A60" s="11">
         <v>57</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B60" s="11">
         <v>1000074</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="12" t="s">
         <v>470</v>
       </c>
       <c r="D60" t="s">
         <v>471</v>
       </c>
-      <c r="E60" s="19">
-        <v>1</v>
-      </c>
-      <c r="F60" s="8">
-        <v>1</v>
-      </c>
-      <c r="G60" s="9">
+      <c r="E60" s="13">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
         <v>1</v>
       </c>
       <c r="H60">
@@ -7667,16 +7646,16 @@
       <c r="M60">
         <v>64.953000000000003</v>
       </c>
-      <c r="N60" s="20">
+      <c r="N60" s="14">
         <v>1.61E-127</v>
       </c>
-      <c r="O60" s="20">
+      <c r="O60" s="14">
         <v>1.98E-63</v>
       </c>
-      <c r="P60" s="7">
+      <c r="P60" s="1">
         <v>223</v>
       </c>
-      <c r="Q60" s="7">
+      <c r="Q60" s="1">
         <v>214</v>
       </c>
       <c r="R60" t="s">
@@ -7697,30 +7676,30 @@
       <c r="W60" t="s">
         <v>477</v>
       </c>
-      <c r="X60" s="7" t="s">
+      <c r="X60" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A61" s="24">
+      <c r="A61" s="18">
         <v>58</v>
       </c>
-      <c r="B61" s="25">
+      <c r="B61" s="19">
         <v>1000079</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="20" t="s">
         <v>478</v>
       </c>
       <c r="D61" t="s">
         <v>479</v>
       </c>
-      <c r="E61" s="19">
+      <c r="E61" s="13">
         <v>-1</v>
       </c>
-      <c r="F61" s="8">
-        <v>1</v>
-      </c>
-      <c r="G61" s="9">
+      <c r="F61" s="2">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3">
         <v>1</v>
       </c>
       <c r="H61">
@@ -7741,16 +7720,16 @@
       <c r="M61">
         <v>64.623000000000005</v>
       </c>
-      <c r="N61" s="20">
+      <c r="N61" s="14">
         <v>4.3700000000000001E-133</v>
       </c>
-      <c r="O61" s="20">
+      <c r="O61" s="14">
         <v>4.2600000000000001E-63</v>
       </c>
-      <c r="P61" s="7">
+      <c r="P61" s="1">
         <v>223</v>
       </c>
-      <c r="Q61" s="7">
+      <c r="Q61" s="1">
         <v>212</v>
       </c>
       <c r="R61" t="s">
@@ -7771,30 +7750,30 @@
       <c r="W61" t="s">
         <v>485</v>
       </c>
-      <c r="X61" s="7" t="s">
+      <c r="X61" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A62" s="24">
+      <c r="A62" s="18">
         <v>59</v>
       </c>
-      <c r="B62" s="25">
+      <c r="B62" s="19">
         <v>1000079</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="20" t="s">
         <v>486</v>
       </c>
       <c r="D62" t="s">
         <v>487</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E62" s="13">
         <v>-1</v>
       </c>
-      <c r="F62" s="8">
-        <v>1</v>
-      </c>
-      <c r="G62" s="9">
+      <c r="F62" s="2">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
         <v>1</v>
       </c>
       <c r="H62">
@@ -7815,16 +7794,16 @@
       <c r="M62">
         <v>100</v>
       </c>
-      <c r="N62" s="20">
+      <c r="N62" s="14">
         <v>3.3899999999999998E-144</v>
       </c>
-      <c r="O62" s="20">
+      <c r="O62" s="14">
         <v>2.4100000000000001E-114</v>
       </c>
-      <c r="P62" s="7">
+      <c r="P62" s="1">
         <v>223</v>
       </c>
-      <c r="Q62" s="7">
+      <c r="Q62" s="1">
         <v>181</v>
       </c>
       <c r="R62" t="s">
@@ -7845,30 +7824,30 @@
       <c r="W62" t="s">
         <v>493</v>
       </c>
-      <c r="X62" s="7" t="s">
+      <c r="X62" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A63" s="24">
+      <c r="A63" s="18">
         <v>60</v>
       </c>
-      <c r="B63" s="25">
+      <c r="B63" s="19">
         <v>1000079</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="20" t="s">
         <v>494</v>
       </c>
       <c r="D63" t="s">
         <v>495</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E63" s="13">
         <v>-1</v>
       </c>
-      <c r="F63" s="8">
-        <v>1</v>
-      </c>
-      <c r="G63" s="9">
+      <c r="F63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3">
         <v>1</v>
       </c>
       <c r="H63">
@@ -7889,16 +7868,16 @@
       <c r="M63">
         <v>67.707999999999998</v>
       </c>
-      <c r="N63" s="20">
+      <c r="N63" s="14">
         <v>8.9899999999999995E-119</v>
       </c>
-      <c r="O63" s="20">
+      <c r="O63" s="14">
         <v>3.1100000000000001E-72</v>
       </c>
-      <c r="P63" s="7">
+      <c r="P63" s="1">
         <v>224</v>
       </c>
-      <c r="Q63" s="7">
+      <c r="Q63" s="1">
         <v>192</v>
       </c>
       <c r="R63" t="s">
@@ -7919,30 +7898,30 @@
       <c r="W63" t="s">
         <v>501</v>
       </c>
-      <c r="X63" s="7" t="s">
+      <c r="X63" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A64" s="24">
+      <c r="A64" s="18">
         <v>61</v>
       </c>
-      <c r="B64" s="25">
+      <c r="B64" s="19">
         <v>1000079</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="20" t="s">
         <v>502</v>
       </c>
       <c r="D64" t="s">
         <v>503</v>
       </c>
-      <c r="E64" s="19">
+      <c r="E64" s="13">
         <v>-1</v>
       </c>
-      <c r="F64" s="8">
-        <v>1</v>
-      </c>
-      <c r="G64" s="9">
+      <c r="F64" s="2">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3">
         <v>1</v>
       </c>
       <c r="H64">
@@ -7963,16 +7942,16 @@
       <c r="M64">
         <v>62.963000000000001</v>
       </c>
-      <c r="N64" s="20">
+      <c r="N64" s="14">
         <v>2.8199999999999998E-127</v>
       </c>
-      <c r="O64" s="20">
+      <c r="O64" s="14">
         <v>1.13E-71</v>
       </c>
-      <c r="P64" s="7">
+      <c r="P64" s="1">
         <v>223</v>
       </c>
-      <c r="Q64" s="7">
+      <c r="Q64" s="1">
         <v>216</v>
       </c>
       <c r="R64" t="s">
@@ -7993,30 +7972,30 @@
       <c r="W64" t="s">
         <v>508</v>
       </c>
-      <c r="X64" s="7" t="s">
+      <c r="X64" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A65" s="24">
+      <c r="A65" s="18">
         <v>62</v>
       </c>
-      <c r="B65" s="25">
+      <c r="B65" s="19">
         <v>1000079</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="20" t="s">
         <v>509</v>
       </c>
       <c r="D65" t="s">
         <v>510</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E65" s="13">
         <v>-1</v>
       </c>
-      <c r="F65" s="8">
-        <v>1</v>
-      </c>
-      <c r="G65" s="9">
+      <c r="F65" s="2">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3">
         <v>1</v>
       </c>
       <c r="H65">
@@ -8037,16 +8016,16 @@
       <c r="M65">
         <v>68.528000000000006</v>
       </c>
-      <c r="N65" s="20">
+      <c r="N65" s="14">
         <v>1.3400000000000001E-121</v>
       </c>
-      <c r="O65" s="20">
+      <c r="O65" s="14">
         <v>1.3E-65</v>
       </c>
-      <c r="P65" s="7">
+      <c r="P65" s="1">
         <v>226</v>
       </c>
-      <c r="Q65" s="7">
+      <c r="Q65" s="1">
         <v>197</v>
       </c>
       <c r="R65" t="s">
@@ -8067,30 +8046,30 @@
       <c r="W65" t="s">
         <v>516</v>
       </c>
-      <c r="X65" s="7" t="s">
+      <c r="X65" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A66" s="24">
+      <c r="A66" s="18">
         <v>63</v>
       </c>
-      <c r="B66" s="25">
+      <c r="B66" s="19">
         <v>1000079</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="20" t="s">
         <v>517</v>
       </c>
       <c r="D66" t="s">
         <v>518</v>
       </c>
-      <c r="E66" s="19">
+      <c r="E66" s="13">
         <v>-1</v>
       </c>
-      <c r="F66" s="8">
+      <c r="F66" s="2">
         <v>2</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G66" s="3">
         <v>1</v>
       </c>
       <c r="H66">
@@ -8111,16 +8090,16 @@
       <c r="M66">
         <v>68.204999999999998</v>
       </c>
-      <c r="N66" s="20">
+      <c r="N66" s="14">
         <v>7.7000000000000005E-122</v>
       </c>
-      <c r="O66" s="20">
+      <c r="O66" s="14">
         <v>1.0300000000000001E-63</v>
       </c>
-      <c r="P66" s="7">
+      <c r="P66" s="1">
         <v>226</v>
       </c>
-      <c r="Q66" s="7">
+      <c r="Q66" s="1">
         <v>195</v>
       </c>
       <c r="R66" t="s">
@@ -8141,30 +8120,30 @@
       <c r="W66" t="s">
         <v>523</v>
       </c>
-      <c r="X66" s="7" t="s">
+      <c r="X66" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A67" s="24">
+      <c r="A67" s="18">
         <v>64</v>
       </c>
-      <c r="B67" s="25">
+      <c r="B67" s="19">
         <v>1000079</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="20" t="s">
         <v>524</v>
       </c>
       <c r="D67" t="s">
         <v>525</v>
       </c>
-      <c r="E67" s="19">
+      <c r="E67" s="13">
         <v>-1</v>
       </c>
-      <c r="F67" s="8">
-        <v>1</v>
-      </c>
-      <c r="G67" s="9">
+      <c r="F67" s="2">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3">
         <v>1</v>
       </c>
       <c r="H67">
@@ -8185,16 +8164,16 @@
       <c r="M67">
         <v>68.182000000000002</v>
       </c>
-      <c r="N67" s="20">
+      <c r="N67" s="14">
         <v>7.7899999999999999E-119</v>
       </c>
-      <c r="O67" s="20">
+      <c r="O67" s="14">
         <v>5.3100000000000002E-73</v>
       </c>
-      <c r="P67" s="7">
+      <c r="P67" s="1">
         <v>224</v>
       </c>
-      <c r="Q67" s="7">
+      <c r="Q67" s="1">
         <v>198</v>
       </c>
       <c r="R67" t="s">
@@ -8215,30 +8194,30 @@
       <c r="W67" t="s">
         <v>531</v>
       </c>
-      <c r="X67" s="7" t="s">
+      <c r="X67" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A68" s="17">
+      <c r="A68" s="11">
         <v>65</v>
       </c>
-      <c r="B68" s="17">
+      <c r="B68" s="11">
         <v>1000074</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="12" t="s">
         <v>532</v>
       </c>
       <c r="D68" t="s">
         <v>533</v>
       </c>
-      <c r="E68" s="19">
-        <v>1</v>
-      </c>
-      <c r="F68" s="8">
-        <v>1</v>
-      </c>
-      <c r="G68" s="9">
+      <c r="E68" s="13">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3">
         <v>1</v>
       </c>
       <c r="H68">
@@ -8259,16 +8238,16 @@
       <c r="M68">
         <v>64.319000000000003</v>
       </c>
-      <c r="N68" s="20">
+      <c r="N68" s="14">
         <v>3.27E-135</v>
       </c>
-      <c r="O68" s="20">
+      <c r="O68" s="14">
         <v>1.3E-64</v>
       </c>
-      <c r="P68" s="7">
+      <c r="P68" s="1">
         <v>223</v>
       </c>
-      <c r="Q68" s="7">
+      <c r="Q68" s="1">
         <v>213</v>
       </c>
       <c r="R68" t="s">
@@ -8289,30 +8268,30 @@
       <c r="W68" t="s">
         <v>538</v>
       </c>
-      <c r="X68" s="7" t="s">
+      <c r="X68" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A69" s="21">
+      <c r="A69" s="15">
         <v>66</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="C69" s="17" t="s">
         <v>539</v>
       </c>
       <c r="D69" t="s">
         <v>540</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E69" s="13">
         <v>-1</v>
       </c>
-      <c r="F69" s="8">
-        <v>1</v>
-      </c>
-      <c r="G69" s="9">
+      <c r="F69" s="2">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3">
         <v>0</v>
       </c>
       <c r="H69">
@@ -8333,16 +8312,16 @@
       <c r="M69">
         <v>76.242999999999995</v>
       </c>
-      <c r="N69" s="20">
+      <c r="N69" s="14">
         <v>8.7799999999999998E-137</v>
       </c>
-      <c r="O69" s="20">
+      <c r="O69" s="14">
         <v>1.71E-68</v>
       </c>
-      <c r="P69" s="7">
+      <c r="P69" s="1">
         <v>223</v>
       </c>
-      <c r="Q69" s="7">
+      <c r="Q69" s="1">
         <v>181</v>
       </c>
       <c r="R69" t="s">
@@ -8363,30 +8342,30 @@
       <c r="W69" t="s">
         <v>546</v>
       </c>
-      <c r="X69" s="7" t="s">
+      <c r="X69" s="1" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A70" s="17">
+      <c r="A70" s="11">
         <v>67</v>
       </c>
-      <c r="B70" s="17">
+      <c r="B70" s="11">
         <v>1000074</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="12" t="s">
         <v>548</v>
       </c>
       <c r="D70" t="s">
         <v>549</v>
       </c>
-      <c r="E70" s="19">
-        <v>1</v>
-      </c>
-      <c r="F70" s="8">
-        <v>1</v>
-      </c>
-      <c r="G70" s="9">
+      <c r="E70" s="13">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3">
         <v>1</v>
       </c>
       <c r="H70">
@@ -8407,16 +8386,16 @@
       <c r="M70">
         <v>74.86</v>
       </c>
-      <c r="N70" s="20">
+      <c r="N70" s="14">
         <v>1E-135</v>
       </c>
-      <c r="O70" s="20">
+      <c r="O70" s="14">
         <v>2.2500000000000001E-67</v>
       </c>
-      <c r="P70" s="7">
+      <c r="P70" s="1">
         <v>223</v>
       </c>
-      <c r="Q70" s="7">
+      <c r="Q70" s="1">
         <v>179</v>
       </c>
       <c r="R70" t="s">
@@ -8437,30 +8416,30 @@
       <c r="W70" t="s">
         <v>555</v>
       </c>
-      <c r="X70" s="7" t="s">
+      <c r="X70" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A71" s="17">
+      <c r="A71" s="11">
         <v>68</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B71" s="11">
         <v>1000074</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="12" t="s">
         <v>556</v>
       </c>
       <c r="D71" t="s">
         <v>557</v>
       </c>
-      <c r="E71" s="19">
-        <v>1</v>
-      </c>
-      <c r="F71" s="8">
-        <v>1</v>
-      </c>
-      <c r="G71" s="9">
+      <c r="E71" s="13">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3">
         <v>1</v>
       </c>
       <c r="H71">
@@ -8481,16 +8460,16 @@
       <c r="M71">
         <v>78.212000000000003</v>
       </c>
-      <c r="N71" s="20">
+      <c r="N71" s="14">
         <v>2.4600000000000001E-137</v>
       </c>
-      <c r="O71" s="20">
+      <c r="O71" s="14">
         <v>6.7500000000000003E-73</v>
       </c>
-      <c r="P71" s="7">
+      <c r="P71" s="1">
         <v>223</v>
       </c>
-      <c r="Q71" s="7">
+      <c r="Q71" s="1">
         <v>179</v>
       </c>
       <c r="R71" t="s">
@@ -8511,30 +8490,30 @@
       <c r="W71" t="s">
         <v>563</v>
       </c>
-      <c r="X71" s="7" t="s">
+      <c r="X71" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A72" s="17">
+      <c r="A72" s="11">
         <v>69</v>
       </c>
-      <c r="B72" s="17">
+      <c r="B72" s="11">
         <v>1000074</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="12" t="s">
         <v>564</v>
       </c>
       <c r="D72" t="s">
         <v>565</v>
       </c>
-      <c r="E72" s="19">
-        <v>1</v>
-      </c>
-      <c r="F72" s="8">
+      <c r="E72" s="13">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2">
         <v>2</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G72" s="3">
         <v>1</v>
       </c>
       <c r="H72">
@@ -8555,16 +8534,16 @@
       <c r="M72">
         <v>67.838999999999999</v>
       </c>
-      <c r="N72" s="20">
+      <c r="N72" s="14">
         <v>1.08E-122</v>
       </c>
-      <c r="O72" s="20">
+      <c r="O72" s="14">
         <v>1.0600000000000001E-65</v>
       </c>
-      <c r="P72" s="7">
+      <c r="P72" s="1">
         <v>226</v>
       </c>
-      <c r="Q72" s="7">
+      <c r="Q72" s="1">
         <v>199</v>
       </c>
       <c r="R72" t="s">
@@ -8585,30 +8564,30 @@
       <c r="W72" t="s">
         <v>571</v>
       </c>
-      <c r="X72" s="7" t="s">
+      <c r="X72" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A73" s="17">
+      <c r="A73" s="11">
         <v>70</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B73" s="11">
         <v>1000074</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="12" t="s">
         <v>572</v>
       </c>
       <c r="D73" t="s">
         <v>573</v>
       </c>
-      <c r="E73" s="19">
-        <v>1</v>
-      </c>
-      <c r="F73" s="8">
-        <v>1</v>
-      </c>
-      <c r="G73" s="9">
+      <c r="E73" s="13">
+        <v>1</v>
+      </c>
+      <c r="F73" s="2">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3">
         <v>1</v>
       </c>
       <c r="H73">
@@ -8629,16 +8608,16 @@
       <c r="M73">
         <v>72.33</v>
       </c>
-      <c r="N73" s="20">
+      <c r="N73" s="14">
         <v>9.2599999999999999E-144</v>
       </c>
-      <c r="O73" s="20">
+      <c r="O73" s="14">
         <v>6.71E-74</v>
       </c>
-      <c r="P73" s="7">
+      <c r="P73" s="1">
         <v>224</v>
       </c>
-      <c r="Q73" s="7">
+      <c r="Q73" s="1">
         <v>206</v>
       </c>
       <c r="R73" t="s">
@@ -8659,30 +8638,30 @@
       <c r="W73" t="s">
         <v>579</v>
       </c>
-      <c r="X73" s="7" t="s">
+      <c r="X73" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A74" s="24">
+      <c r="A74" s="18">
         <v>71</v>
       </c>
-      <c r="B74" s="25">
+      <c r="B74" s="19">
         <v>1000079</v>
       </c>
-      <c r="C74" s="26" t="s">
+      <c r="C74" s="20" t="s">
         <v>580</v>
       </c>
       <c r="D74" t="s">
         <v>581</v>
       </c>
-      <c r="E74" s="19">
+      <c r="E74" s="13">
         <v>-1</v>
       </c>
-      <c r="F74" s="8">
-        <v>1</v>
-      </c>
-      <c r="G74" s="9">
+      <c r="F74" s="2">
+        <v>1</v>
+      </c>
+      <c r="G74" s="3">
         <v>1</v>
       </c>
       <c r="H74">
@@ -8703,16 +8682,16 @@
       <c r="M74">
         <v>66.667000000000002</v>
       </c>
-      <c r="N74" s="20">
+      <c r="N74" s="14">
         <v>8.1799999999999995E-130</v>
       </c>
-      <c r="O74" s="20">
+      <c r="O74" s="14">
         <v>8.6399999999999992E-68</v>
       </c>
-      <c r="P74" s="7">
+      <c r="P74" s="1">
         <v>225</v>
       </c>
-      <c r="Q74" s="7">
+      <c r="Q74" s="1">
         <v>207</v>
       </c>
       <c r="R74" t="s">
@@ -8733,30 +8712,30 @@
       <c r="W74" t="s">
         <v>587</v>
       </c>
-      <c r="X74" s="7" t="s">
+      <c r="X74" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A75" s="24">
+      <c r="A75" s="18">
         <v>72</v>
       </c>
-      <c r="B75" s="25">
+      <c r="B75" s="19">
         <v>1000079</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="20" t="s">
         <v>588</v>
       </c>
       <c r="D75" t="s">
         <v>589</v>
       </c>
-      <c r="E75" s="19">
+      <c r="E75" s="13">
         <v>-1</v>
       </c>
-      <c r="F75" s="8">
+      <c r="F75" s="2">
         <v>2</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G75" s="3">
         <v>1</v>
       </c>
       <c r="H75">
@@ -8777,16 +8756,16 @@
       <c r="M75">
         <v>63</v>
       </c>
-      <c r="N75" s="20">
+      <c r="N75" s="14">
         <v>1.6200000000000001E-120</v>
       </c>
-      <c r="O75" s="20">
+      <c r="O75" s="14">
         <v>1.4900000000000001E-56</v>
       </c>
-      <c r="P75" s="7">
+      <c r="P75" s="1">
         <v>227</v>
       </c>
-      <c r="Q75" s="7">
+      <c r="Q75" s="1">
         <v>200</v>
       </c>
       <c r="R75" t="s">
@@ -8807,30 +8786,30 @@
       <c r="W75" t="s">
         <v>595</v>
       </c>
-      <c r="X75" s="7" t="s">
+      <c r="X75" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A76" s="17">
+      <c r="A76" s="11">
         <v>73</v>
       </c>
-      <c r="B76" s="17">
+      <c r="B76" s="11">
         <v>1000074</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="12" t="s">
         <v>596</v>
       </c>
       <c r="D76" t="s">
         <v>597</v>
       </c>
-      <c r="E76" s="19">
-        <v>1</v>
-      </c>
-      <c r="F76" s="8">
+      <c r="E76" s="13">
+        <v>1</v>
+      </c>
+      <c r="F76" s="2">
         <v>2</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G76" s="3">
         <v>1</v>
       </c>
       <c r="H76">
@@ -8851,16 +8830,16 @@
       <c r="M76">
         <v>100</v>
       </c>
-      <c r="N76" s="20">
+      <c r="N76" s="14">
         <v>1.13E-156</v>
       </c>
-      <c r="O76" s="20">
+      <c r="O76" s="14">
         <v>8.3300000000000001E-158</v>
       </c>
-      <c r="P76" s="7">
+      <c r="P76" s="1">
         <v>244</v>
       </c>
-      <c r="Q76" s="7">
+      <c r="Q76" s="1">
         <v>251</v>
       </c>
       <c r="R76" t="s">
@@ -8881,30 +8860,30 @@
       <c r="W76" t="s">
         <v>603</v>
       </c>
-      <c r="X76" s="7" t="s">
+      <c r="X76" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A77" s="17">
+      <c r="A77" s="11">
         <v>74</v>
       </c>
-      <c r="B77" s="17">
+      <c r="B77" s="11">
         <v>1000074</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="12" t="s">
         <v>604</v>
       </c>
       <c r="D77" t="s">
         <v>605</v>
       </c>
-      <c r="E77" s="19">
-        <v>1</v>
-      </c>
-      <c r="F77" s="8">
-        <v>1</v>
-      </c>
-      <c r="G77" s="9">
+      <c r="E77" s="13">
+        <v>1</v>
+      </c>
+      <c r="F77" s="2">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3">
         <v>1</v>
       </c>
       <c r="H77">
@@ -8925,16 +8904,16 @@
       <c r="M77">
         <v>64.114999999999995</v>
       </c>
-      <c r="N77" s="20">
+      <c r="N77" s="14">
         <v>2.7800000000000003E-128</v>
       </c>
-      <c r="O77" s="20">
+      <c r="O77" s="14">
         <v>7.2599999999999997E-70</v>
       </c>
-      <c r="P77" s="7">
+      <c r="P77" s="1">
         <v>228</v>
       </c>
-      <c r="Q77" s="7">
+      <c r="Q77" s="1">
         <v>209</v>
       </c>
       <c r="R77" t="s">
@@ -8955,30 +8934,30 @@
       <c r="W77" t="s">
         <v>611</v>
       </c>
-      <c r="X77" s="7" t="s">
+      <c r="X77" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A78" s="24">
+      <c r="A78" s="18">
         <v>75</v>
       </c>
-      <c r="B78" s="25">
+      <c r="B78" s="19">
         <v>1000079</v>
       </c>
-      <c r="C78" s="26" t="s">
+      <c r="C78" s="20" t="s">
         <v>612</v>
       </c>
       <c r="D78" t="s">
         <v>613</v>
       </c>
-      <c r="E78" s="19">
+      <c r="E78" s="13">
         <v>-1</v>
       </c>
-      <c r="F78" s="8">
-        <v>1</v>
-      </c>
-      <c r="G78" s="9">
+      <c r="F78" s="2">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3">
         <v>1</v>
       </c>
       <c r="H78">
@@ -8999,16 +8978,16 @@
       <c r="M78">
         <v>65.864999999999995</v>
       </c>
-      <c r="N78" s="20">
+      <c r="N78" s="14">
         <v>3.9600000000000003E-132</v>
       </c>
-      <c r="O78" s="20">
+      <c r="O78" s="14">
         <v>4.4100000000000003E-64</v>
       </c>
-      <c r="P78" s="7">
+      <c r="P78" s="1">
         <v>227</v>
       </c>
-      <c r="Q78" s="7">
+      <c r="Q78" s="1">
         <v>208</v>
       </c>
       <c r="R78" t="s">
@@ -9029,30 +9008,30 @@
       <c r="W78" t="s">
         <v>619</v>
       </c>
-      <c r="X78" s="7" t="s">
+      <c r="X78" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A79" s="17">
+      <c r="A79" s="11">
         <v>76</v>
       </c>
-      <c r="B79" s="17">
+      <c r="B79" s="11">
         <v>1000074</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="12" t="s">
         <v>620</v>
       </c>
       <c r="D79" t="s">
         <v>621</v>
       </c>
-      <c r="E79" s="19">
-        <v>1</v>
-      </c>
-      <c r="F79" s="8">
-        <v>1</v>
-      </c>
-      <c r="G79" s="9">
+      <c r="E79" s="13">
+        <v>1</v>
+      </c>
+      <c r="F79" s="2">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3">
         <v>1</v>
       </c>
       <c r="H79">
@@ -9073,16 +9052,16 @@
       <c r="M79">
         <v>100</v>
       </c>
-      <c r="N79" s="20">
+      <c r="N79" s="14">
         <v>7.3299999999999999E-149</v>
       </c>
-      <c r="O79" s="20">
+      <c r="O79" s="14">
         <v>2.2E-135</v>
       </c>
-      <c r="P79" s="7">
+      <c r="P79" s="1">
         <v>227</v>
       </c>
-      <c r="Q79" s="7">
+      <c r="Q79" s="1">
         <v>210</v>
       </c>
       <c r="R79" t="s">
@@ -9103,30 +9082,30 @@
       <c r="W79" t="s">
         <v>627</v>
       </c>
-      <c r="X79" s="7" t="s">
+      <c r="X79" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A80" s="21">
+      <c r="A80" s="15">
         <v>77</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="C80" s="17" t="s">
         <v>350</v>
       </c>
       <c r="D80" t="s">
         <v>351</v>
       </c>
-      <c r="E80" s="19">
+      <c r="E80" s="13">
         <v>-1</v>
       </c>
-      <c r="F80" s="8">
+      <c r="F80" s="2">
         <v>0</v>
       </c>
-      <c r="G80" s="9">
+      <c r="G80" s="3">
         <v>0</v>
       </c>
       <c r="H80">
@@ -9147,16 +9126,16 @@
       <c r="M80">
         <v>28.501999999999999</v>
       </c>
-      <c r="N80" s="20">
+      <c r="N80" s="14">
         <v>5.5399999999999998E-43</v>
       </c>
-      <c r="O80" s="20">
+      <c r="O80" s="14">
         <v>9.3999999999999999E-11</v>
       </c>
-      <c r="P80" s="7">
+      <c r="P80" s="1">
         <v>232</v>
       </c>
-      <c r="Q80" s="7">
+      <c r="Q80" s="1">
         <v>207</v>
       </c>
       <c r="T80" t="s">
@@ -9171,30 +9150,30 @@
       <c r="W80" t="s">
         <v>631</v>
       </c>
-      <c r="X80" s="7" t="s">
+      <c r="X80" s="1" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A81" s="24">
+      <c r="A81" s="18">
         <v>78</v>
       </c>
-      <c r="B81" s="25">
+      <c r="B81" s="19">
         <v>1000079</v>
       </c>
-      <c r="C81" s="26" t="s">
+      <c r="C81" s="20" t="s">
         <v>633</v>
       </c>
       <c r="D81" t="s">
         <v>634</v>
       </c>
-      <c r="E81" s="19">
+      <c r="E81" s="13">
         <v>-1</v>
       </c>
-      <c r="F81" s="8">
+      <c r="F81" s="2">
         <v>2</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G81" s="3">
         <v>1</v>
       </c>
       <c r="H81">
@@ -9215,16 +9194,16 @@
       <c r="M81">
         <v>63.462000000000003</v>
       </c>
-      <c r="N81" s="20">
+      <c r="N81" s="14">
         <v>2.62E-115</v>
       </c>
-      <c r="O81" s="20">
+      <c r="O81" s="14">
         <v>7.4800000000000005E-68</v>
       </c>
-      <c r="P81" s="7">
+      <c r="P81" s="1">
         <v>244</v>
       </c>
-      <c r="Q81" s="7">
+      <c r="Q81" s="1">
         <v>208</v>
       </c>
       <c r="R81" t="s">
@@ -9245,30 +9224,30 @@
       <c r="W81" t="s">
         <v>640</v>
       </c>
-      <c r="X81" s="7" t="s">
+      <c r="X81" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A82" s="21">
+      <c r="A82" s="15">
         <v>79</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" s="17" t="s">
         <v>216</v>
       </c>
       <c r="D82" t="s">
         <v>641</v>
       </c>
-      <c r="E82" s="19">
+      <c r="E82" s="13">
         <v>-1</v>
       </c>
-      <c r="F82" s="8">
+      <c r="F82" s="2">
         <v>0</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G82" s="3">
         <v>0</v>
       </c>
       <c r="H82">
@@ -9289,16 +9268,16 @@
       <c r="M82">
         <v>28.181999999999999</v>
       </c>
-      <c r="N82" s="20">
+      <c r="N82" s="14">
         <v>1.08E-35</v>
       </c>
-      <c r="O82" s="20">
+      <c r="O82" s="14">
         <v>1.5600000000000001E-14</v>
       </c>
-      <c r="P82" s="7">
+      <c r="P82" s="1">
         <v>217</v>
       </c>
-      <c r="Q82" s="7">
+      <c r="Q82" s="1">
         <v>220</v>
       </c>
       <c r="T82" t="s">
@@ -9313,30 +9292,30 @@
       <c r="W82" t="s">
         <v>645</v>
       </c>
-      <c r="X82" s="27" t="s">
+      <c r="X82" s="21" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A83" s="21">
+      <c r="A83" s="15">
         <v>80</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C83" s="23" t="s">
+      <c r="C83" s="17" t="s">
         <v>263</v>
       </c>
       <c r="D83" t="s">
         <v>264</v>
       </c>
-      <c r="E83" s="19">
+      <c r="E83" s="13">
         <v>-1</v>
       </c>
-      <c r="F83" s="8">
+      <c r="F83" s="2">
         <v>0</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G83" s="3">
         <v>0</v>
       </c>
       <c r="H83">
@@ -9357,16 +9336,16 @@
       <c r="M83">
         <v>33.161000000000001</v>
       </c>
-      <c r="N83" s="20">
+      <c r="N83" s="14">
         <v>1.12E-26</v>
       </c>
-      <c r="O83" s="20">
+      <c r="O83" s="14">
         <v>4.8700000000000002E-16</v>
       </c>
-      <c r="P83" s="7">
+      <c r="P83" s="1">
         <v>221</v>
       </c>
-      <c r="Q83" s="7">
+      <c r="Q83" s="1">
         <v>193</v>
       </c>
       <c r="T83" t="s">
@@ -9381,30 +9360,30 @@
       <c r="W83" t="s">
         <v>650</v>
       </c>
-      <c r="X83" s="27" t="s">
+      <c r="X83" s="21" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A84" s="21">
+      <c r="A84" s="15">
         <v>81</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="C84" s="17" t="s">
         <v>652</v>
       </c>
       <c r="D84" t="s">
         <v>653</v>
       </c>
-      <c r="E84" s="19">
-        <v>1</v>
-      </c>
-      <c r="F84" s="8">
-        <v>1</v>
-      </c>
-      <c r="G84" s="9">
+      <c r="E84" s="13">
+        <v>1</v>
+      </c>
+      <c r="F84" s="2">
+        <v>1</v>
+      </c>
+      <c r="G84" s="3">
         <v>1</v>
       </c>
       <c r="H84">
@@ -9425,16 +9404,16 @@
       <c r="M84">
         <v>78.081999999999994</v>
       </c>
-      <c r="N84" s="20">
+      <c r="N84" s="14">
         <v>1.2E-121</v>
       </c>
-      <c r="O84" s="20">
+      <c r="O84" s="14">
         <v>2.9900000000000001E-65</v>
       </c>
-      <c r="P84" s="7">
+      <c r="P84" s="1">
         <v>239</v>
       </c>
-      <c r="Q84" s="7">
+      <c r="Q84" s="1">
         <v>146</v>
       </c>
       <c r="R84" t="s">
@@ -9455,30 +9434,30 @@
       <c r="W84" t="s">
         <v>659</v>
       </c>
-      <c r="X84" s="7" t="s">
+      <c r="X84" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A85" s="21">
+      <c r="A85" s="15">
         <v>83</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C85" s="23" t="s">
+      <c r="C85" s="17" t="s">
         <v>660</v>
       </c>
       <c r="D85" t="s">
         <v>661</v>
       </c>
-      <c r="E85" s="19">
-        <v>1</v>
-      </c>
-      <c r="F85" s="8">
+      <c r="E85" s="13">
+        <v>1</v>
+      </c>
+      <c r="F85" s="2">
         <v>0</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G85" s="3">
         <v>0</v>
       </c>
       <c r="H85">
@@ -9499,16 +9478,16 @@
       <c r="M85">
         <v>83.087999999999994</v>
       </c>
-      <c r="N85" s="20">
+      <c r="N85" s="14">
         <v>4.4799999999999998E-115</v>
       </c>
-      <c r="O85" s="20">
+      <c r="O85" s="14">
         <v>2.0600000000000001E-69</v>
       </c>
-      <c r="P85" s="7">
+      <c r="P85" s="1">
         <v>231</v>
       </c>
-      <c r="Q85" s="7">
+      <c r="Q85" s="1">
         <v>136</v>
       </c>
       <c r="T85" t="s">
@@ -9523,30 +9502,30 @@
       <c r="W85" t="s">
         <v>665</v>
       </c>
-      <c r="X85" s="7" t="s">
+      <c r="X85" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A86" s="21">
+      <c r="A86" s="15">
         <v>84</v>
       </c>
-      <c r="B86" s="23" t="s">
+      <c r="B86" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C86" s="23" t="s">
+      <c r="C86" s="17" t="s">
         <v>666</v>
       </c>
       <c r="D86" t="s">
         <v>667</v>
       </c>
-      <c r="E86" s="19">
+      <c r="E86" s="13">
         <v>-1</v>
       </c>
-      <c r="F86" s="8">
-        <v>1</v>
-      </c>
-      <c r="G86" s="9">
+      <c r="F86" s="2">
+        <v>1</v>
+      </c>
+      <c r="G86" s="3">
         <v>1</v>
       </c>
       <c r="H86">
@@ -9567,16 +9546,16 @@
       <c r="M86">
         <v>82.352999999999994</v>
       </c>
-      <c r="N86" s="20">
+      <c r="N86" s="14">
         <v>2.5400000000000001E-118</v>
       </c>
-      <c r="O86" s="20">
+      <c r="O86" s="14">
         <v>5.8199999999999996E-70</v>
       </c>
-      <c r="P86" s="7">
+      <c r="P86" s="1">
         <v>229</v>
       </c>
-      <c r="Q86" s="7">
+      <c r="Q86" s="1">
         <v>136</v>
       </c>
       <c r="R86" t="s">
@@ -9597,30 +9576,30 @@
       <c r="W86" t="s">
         <v>673</v>
       </c>
-      <c r="X86" s="7" t="s">
+      <c r="X86" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A87" s="24">
+      <c r="A87" s="18">
         <v>85</v>
       </c>
-      <c r="B87" s="25">
+      <c r="B87" s="19">
         <v>1000079</v>
       </c>
-      <c r="C87" s="26" t="s">
+      <c r="C87" s="20" t="s">
         <v>674</v>
       </c>
       <c r="D87" t="s">
         <v>675</v>
       </c>
-      <c r="E87" s="19">
+      <c r="E87" s="13">
         <v>-1</v>
       </c>
-      <c r="F87" s="8">
-        <v>1</v>
-      </c>
-      <c r="G87" s="9">
+      <c r="F87" s="2">
+        <v>1</v>
+      </c>
+      <c r="G87" s="3">
         <v>1</v>
       </c>
       <c r="H87">
@@ -9641,16 +9620,16 @@
       <c r="M87">
         <v>71.176000000000002</v>
       </c>
-      <c r="N87" s="20">
+      <c r="N87" s="14">
         <v>2.7000000000000002E-106</v>
       </c>
-      <c r="O87" s="20">
+      <c r="O87" s="14">
         <v>7.2699999999999998E-70</v>
       </c>
-      <c r="P87" s="7">
+      <c r="P87" s="1">
         <v>229</v>
       </c>
-      <c r="Q87" s="7">
+      <c r="Q87" s="1">
         <v>170</v>
       </c>
       <c r="R87" t="s">
@@ -9671,30 +9650,30 @@
       <c r="W87" t="s">
         <v>681</v>
       </c>
-      <c r="X87" s="7" t="s">
+      <c r="X87" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A88" s="28">
+      <c r="A88" s="22">
         <v>86</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B88" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C88" s="23" t="s">
+      <c r="C88" s="17" t="s">
         <v>674</v>
       </c>
       <c r="D88" t="s">
         <v>682</v>
       </c>
-      <c r="E88" s="19">
+      <c r="E88" s="13">
         <v>-1</v>
       </c>
-      <c r="F88" s="8">
+      <c r="F88" s="2">
         <v>0</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G88" s="3">
         <v>0</v>
       </c>
       <c r="H88">
@@ -9715,16 +9694,16 @@
       <c r="M88">
         <v>39.161000000000001</v>
       </c>
-      <c r="N88" s="20">
+      <c r="N88" s="14">
         <v>5.0200000000000003E-41</v>
       </c>
-      <c r="O88" s="20">
+      <c r="O88" s="14">
         <v>5.8900000000000001E-23</v>
       </c>
-      <c r="P88" s="7">
+      <c r="P88" s="1">
         <v>226</v>
       </c>
-      <c r="Q88" s="7">
+      <c r="Q88" s="1">
         <v>143</v>
       </c>
       <c r="S88" t="s">
@@ -9742,30 +9721,30 @@
       <c r="W88" t="s">
         <v>687</v>
       </c>
-      <c r="X88" s="7" t="s">
+      <c r="X88" s="1" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A89" s="21">
+      <c r="A89" s="15">
         <v>87</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C89" s="23" t="s">
+      <c r="C89" s="17" t="s">
         <v>689</v>
       </c>
       <c r="D89" t="s">
         <v>690</v>
       </c>
-      <c r="E89" s="19">
-        <v>1</v>
-      </c>
-      <c r="F89" s="8">
+      <c r="E89" s="13">
+        <v>1</v>
+      </c>
+      <c r="F89" s="2">
         <v>0</v>
       </c>
-      <c r="G89" s="9">
+      <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89">
@@ -9786,16 +9765,16 @@
       <c r="M89">
         <v>84.558999999999997</v>
       </c>
-      <c r="N89" s="20">
+      <c r="N89" s="14">
         <v>2.85E-117</v>
       </c>
-      <c r="O89" s="20">
+      <c r="O89" s="14">
         <v>6.35E-71</v>
       </c>
-      <c r="P89" s="7">
+      <c r="P89" s="1">
         <v>232</v>
       </c>
-      <c r="Q89" s="7">
+      <c r="Q89" s="1">
         <v>136</v>
       </c>
       <c r="T89" t="s">
@@ -9810,30 +9789,30 @@
       <c r="W89" t="s">
         <v>694</v>
       </c>
-      <c r="X89" s="7" t="s">
+      <c r="X89" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A90" s="17">
+      <c r="A90" s="11">
         <v>88</v>
       </c>
-      <c r="B90" s="17">
+      <c r="B90" s="11">
         <v>1000074</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="12" t="s">
         <v>695</v>
       </c>
       <c r="D90" t="s">
         <v>696</v>
       </c>
-      <c r="E90" s="19">
-        <v>1</v>
-      </c>
-      <c r="F90" s="8">
+      <c r="E90" s="13">
+        <v>1</v>
+      </c>
+      <c r="F90" s="2">
         <v>2</v>
       </c>
-      <c r="G90" s="9">
+      <c r="G90" s="3">
         <v>1</v>
       </c>
       <c r="H90">
@@ -9854,16 +9833,16 @@
       <c r="M90">
         <v>93.525000000000006</v>
       </c>
-      <c r="N90" s="20">
+      <c r="N90" s="14">
         <v>4.6199999999999999E-112</v>
       </c>
-      <c r="O90" s="20">
+      <c r="O90" s="14">
         <v>8.1200000000000002E-76</v>
       </c>
-      <c r="P90" s="7">
+      <c r="P90" s="1">
         <v>230</v>
       </c>
-      <c r="Q90" s="7">
+      <c r="Q90" s="1">
         <v>139</v>
       </c>
       <c r="R90" t="s">
@@ -9884,30 +9863,30 @@
       <c r="W90" t="s">
         <v>702</v>
       </c>
-      <c r="X90" s="7" t="s">
+      <c r="X90" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A91" s="21">
+      <c r="A91" s="15">
         <v>89</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="B91" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C91" s="23" t="s">
+      <c r="C91" s="17" t="s">
         <v>703</v>
       </c>
       <c r="D91" t="s">
         <v>704</v>
       </c>
-      <c r="E91" s="19">
+      <c r="E91" s="13">
         <v>-1</v>
       </c>
-      <c r="F91" s="8">
+      <c r="F91" s="2">
         <v>0</v>
       </c>
-      <c r="G91" s="9">
+      <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91">
@@ -9928,16 +9907,16 @@
       <c r="M91">
         <v>83.087999999999994</v>
       </c>
-      <c r="N91" s="20">
+      <c r="N91" s="14">
         <v>2.46E-116</v>
       </c>
-      <c r="O91" s="20">
+      <c r="O91" s="14">
         <v>2.1900000000000001E-70</v>
       </c>
-      <c r="P91" s="7">
+      <c r="P91" s="1">
         <v>231</v>
       </c>
-      <c r="Q91" s="7">
+      <c r="Q91" s="1">
         <v>136</v>
       </c>
       <c r="T91" t="s">
@@ -9952,30 +9931,30 @@
       <c r="W91" t="s">
         <v>708</v>
       </c>
-      <c r="X91" s="7" t="s">
+      <c r="X91" s="1" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A92" s="17">
+      <c r="A92" s="11">
         <v>90</v>
       </c>
-      <c r="B92" s="17">
+      <c r="B92" s="11">
         <v>1000074</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C92" s="12" t="s">
         <v>710</v>
       </c>
       <c r="D92" t="s">
         <v>711</v>
       </c>
-      <c r="E92" s="19">
-        <v>1</v>
-      </c>
-      <c r="F92" s="8">
-        <v>1</v>
-      </c>
-      <c r="G92" s="9">
+      <c r="E92" s="13">
+        <v>1</v>
+      </c>
+      <c r="F92" s="2">
+        <v>1</v>
+      </c>
+      <c r="G92" s="3">
         <v>1</v>
       </c>
       <c r="H92">
@@ -9996,16 +9975,16 @@
       <c r="M92">
         <v>100</v>
       </c>
-      <c r="N92" s="20">
+      <c r="N92" s="14">
         <v>7.0599999999999996E-149</v>
       </c>
-      <c r="O92" s="20">
+      <c r="O92" s="14">
         <v>8.7600000000000007E-90</v>
       </c>
-      <c r="P92" s="7">
+      <c r="P92" s="1">
         <v>230</v>
       </c>
-      <c r="Q92" s="7">
+      <c r="Q92" s="1">
         <v>141</v>
       </c>
       <c r="R92" t="s">
@@ -10026,30 +10005,30 @@
       <c r="W92" t="s">
         <v>717</v>
       </c>
-      <c r="X92" s="7" t="s">
+      <c r="X92" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A93" s="24">
+      <c r="A93" s="18">
         <v>91</v>
       </c>
-      <c r="B93" s="25">
+      <c r="B93" s="19">
         <v>1000079</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="20" t="s">
         <v>718</v>
       </c>
       <c r="D93" t="s">
         <v>719</v>
       </c>
-      <c r="E93" s="19">
+      <c r="E93" s="13">
         <v>-1</v>
       </c>
-      <c r="F93" s="8">
-        <v>1</v>
-      </c>
-      <c r="G93" s="9">
+      <c r="F93" s="2">
+        <v>1</v>
+      </c>
+      <c r="G93" s="3">
         <v>1</v>
       </c>
       <c r="H93">
@@ -10070,16 +10049,16 @@
       <c r="M93">
         <v>70.400000000000006</v>
       </c>
-      <c r="N93" s="20">
+      <c r="N93" s="14">
         <v>1.26E-141</v>
       </c>
-      <c r="O93" s="20">
+      <c r="O93" s="14">
         <v>1.5399999999999999E-90</v>
       </c>
-      <c r="P93" s="7">
+      <c r="P93" s="1">
         <v>223</v>
       </c>
-      <c r="Q93" s="7">
+      <c r="Q93" s="1">
         <v>250</v>
       </c>
       <c r="R93" t="s">
@@ -10100,30 +10079,30 @@
       <c r="W93" t="s">
         <v>725</v>
       </c>
-      <c r="X93" s="7" t="s">
+      <c r="X93" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A94" s="17">
+      <c r="A94" s="11">
         <v>92</v>
       </c>
-      <c r="B94" s="17">
+      <c r="B94" s="11">
         <v>1000074</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="12" t="s">
         <v>726</v>
       </c>
       <c r="D94" t="s">
         <v>727</v>
       </c>
-      <c r="E94" s="19">
-        <v>1</v>
-      </c>
-      <c r="F94" s="8">
-        <v>1</v>
-      </c>
-      <c r="G94" s="9">
+      <c r="E94" s="13">
+        <v>1</v>
+      </c>
+      <c r="F94" s="2">
+        <v>1</v>
+      </c>
+      <c r="G94" s="3">
         <v>1</v>
       </c>
       <c r="H94">
@@ -10144,16 +10123,16 @@
       <c r="M94">
         <v>68.084999999999994</v>
       </c>
-      <c r="N94" s="20">
+      <c r="N94" s="14">
         <v>5.6000000000000005E-140</v>
       </c>
-      <c r="O94" s="20">
+      <c r="O94" s="14">
         <v>4.2899999999999998E-76</v>
       </c>
-      <c r="P94" s="7">
+      <c r="P94" s="1">
         <v>223</v>
       </c>
-      <c r="Q94" s="7">
+      <c r="Q94" s="1">
         <v>235</v>
       </c>
       <c r="R94" t="s">
@@ -10174,30 +10153,30 @@
       <c r="W94" t="s">
         <v>732</v>
       </c>
-      <c r="X94" s="7" t="s">
+      <c r="X94" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A95" s="21">
+      <c r="A95" s="15">
         <v>93</v>
       </c>
-      <c r="B95" s="23" t="s">
+      <c r="B95" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C95" s="23" t="s">
+      <c r="C95" s="17" t="s">
         <v>733</v>
       </c>
       <c r="D95" t="s">
         <v>734</v>
       </c>
-      <c r="E95" s="19">
+      <c r="E95" s="13">
         <v>-1</v>
       </c>
-      <c r="F95" s="8">
+      <c r="F95" s="2">
         <v>2</v>
       </c>
-      <c r="G95" s="9">
+      <c r="G95" s="3">
         <v>1</v>
       </c>
       <c r="H95">
@@ -10218,16 +10197,16 @@
       <c r="M95">
         <v>65.613</v>
       </c>
-      <c r="N95" s="20">
+      <c r="N95" s="14">
         <v>8.1899999999999995E-142</v>
       </c>
-      <c r="O95" s="20">
+      <c r="O95" s="14">
         <v>1.2599999999999999E-79</v>
       </c>
-      <c r="P95" s="7">
+      <c r="P95" s="1">
         <v>223</v>
       </c>
-      <c r="Q95" s="7">
+      <c r="Q95" s="1">
         <v>253</v>
       </c>
       <c r="R95" t="s">
@@ -10248,30 +10227,30 @@
       <c r="W95" t="s">
         <v>739</v>
       </c>
-      <c r="X95" s="7" t="s">
+      <c r="X95" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A96" s="17">
+      <c r="A96" s="11">
         <v>94</v>
       </c>
-      <c r="B96" s="17">
+      <c r="B96" s="11">
         <v>1000074</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C96" s="12" t="s">
         <v>740</v>
       </c>
       <c r="D96" t="s">
         <v>741</v>
       </c>
-      <c r="E96" s="19">
-        <v>1</v>
-      </c>
-      <c r="F96" s="8">
-        <v>1</v>
-      </c>
-      <c r="G96" s="9">
+      <c r="E96" s="13">
+        <v>1</v>
+      </c>
+      <c r="F96" s="2">
+        <v>1</v>
+      </c>
+      <c r="G96" s="3">
         <v>1</v>
       </c>
       <c r="H96">
@@ -10292,16 +10271,16 @@
       <c r="M96">
         <v>60.392000000000003</v>
       </c>
-      <c r="N96" s="20">
+      <c r="N96" s="14">
         <v>1.05E-137</v>
       </c>
-      <c r="O96" s="20">
+      <c r="O96" s="14">
         <v>2.8599999999999999E-72</v>
       </c>
-      <c r="P96" s="7">
+      <c r="P96" s="1">
         <v>223</v>
       </c>
-      <c r="Q96" s="7">
+      <c r="Q96" s="1">
         <v>255</v>
       </c>
       <c r="R96" t="s">
@@ -10322,30 +10301,30 @@
       <c r="W96" t="s">
         <v>747</v>
       </c>
-      <c r="X96" s="7" t="s">
+      <c r="X96" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A97" s="24">
+      <c r="A97" s="18">
         <v>95</v>
       </c>
-      <c r="B97" s="25">
+      <c r="B97" s="19">
         <v>1000079</v>
       </c>
-      <c r="C97" s="26" t="s">
+      <c r="C97" s="20" t="s">
         <v>748</v>
       </c>
       <c r="D97" t="s">
         <v>749</v>
       </c>
-      <c r="E97" s="19">
+      <c r="E97" s="13">
         <v>-1</v>
       </c>
-      <c r="F97" s="8">
-        <v>1</v>
-      </c>
-      <c r="G97" s="9">
+      <c r="F97" s="2">
+        <v>1</v>
+      </c>
+      <c r="G97" s="3">
         <v>1</v>
       </c>
       <c r="H97">
@@ -10366,16 +10345,16 @@
       <c r="M97">
         <v>68.379000000000005</v>
       </c>
-      <c r="N97" s="20">
+      <c r="N97" s="14">
         <v>5.4200000000000002E-143</v>
       </c>
-      <c r="O97" s="20">
+      <c r="O97" s="14">
         <v>1.41E-79</v>
       </c>
-      <c r="P97" s="7">
+      <c r="P97" s="1">
         <v>223</v>
       </c>
-      <c r="Q97" s="7">
+      <c r="Q97" s="1">
         <v>253</v>
       </c>
       <c r="R97" t="s">
@@ -10396,30 +10375,30 @@
       <c r="W97" t="s">
         <v>755</v>
       </c>
-      <c r="X97" s="7" t="s">
+      <c r="X97" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A98" s="17">
+      <c r="A98" s="11">
         <v>96</v>
       </c>
-      <c r="B98" s="17">
+      <c r="B98" s="11">
         <v>1000074</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="12" t="s">
         <v>756</v>
       </c>
       <c r="D98" t="s">
         <v>757</v>
       </c>
-      <c r="E98" s="19">
-        <v>1</v>
-      </c>
-      <c r="F98" s="8">
-        <v>1</v>
-      </c>
-      <c r="G98" s="9">
+      <c r="E98" s="13">
+        <v>1</v>
+      </c>
+      <c r="F98" s="2">
+        <v>1</v>
+      </c>
+      <c r="G98" s="3">
         <v>1</v>
       </c>
       <c r="H98">
@@ -10440,16 +10419,16 @@
       <c r="M98">
         <v>57.317</v>
       </c>
-      <c r="N98" s="20">
+      <c r="N98" s="14">
         <v>2.32E-118</v>
       </c>
-      <c r="O98" s="20">
+      <c r="O98" s="14">
         <v>2.71E-71</v>
       </c>
-      <c r="P98" s="7">
+      <c r="P98" s="1">
         <v>224</v>
       </c>
-      <c r="Q98" s="7">
+      <c r="Q98" s="1">
         <v>246</v>
       </c>
       <c r="R98" t="s">
@@ -10470,30 +10449,30 @@
       <c r="W98" t="s">
         <v>763</v>
       </c>
-      <c r="X98" s="7" t="s">
+      <c r="X98" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A99" s="21">
+      <c r="A99" s="15">
         <v>97</v>
       </c>
-      <c r="B99" s="22" t="s">
+      <c r="B99" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C99" s="23" t="s">
+      <c r="C99" s="17" t="s">
         <v>398</v>
       </c>
       <c r="D99" t="s">
         <v>399</v>
       </c>
-      <c r="E99" s="19">
-        <v>1</v>
-      </c>
-      <c r="F99" s="8">
+      <c r="E99" s="13">
+        <v>1</v>
+      </c>
+      <c r="F99" s="2">
         <v>0</v>
       </c>
-      <c r="G99" s="9">
+      <c r="G99" s="3">
         <v>0</v>
       </c>
       <c r="H99">
@@ -10514,16 +10493,16 @@
       <c r="M99">
         <v>36.231999999999999</v>
       </c>
-      <c r="N99" s="20">
+      <c r="N99" s="14">
         <v>6.1499999999999995E-20</v>
       </c>
-      <c r="O99" s="20">
+      <c r="O99" s="14">
         <v>6.9799999999999998E-15</v>
       </c>
-      <c r="P99" s="7">
+      <c r="P99" s="1">
         <v>219</v>
       </c>
-      <c r="Q99" s="7">
+      <c r="Q99" s="1">
         <v>138</v>
       </c>
       <c r="T99" t="s">
@@ -10538,30 +10517,30 @@
       <c r="W99" t="s">
         <v>767</v>
       </c>
-      <c r="X99" s="27" t="s">
+      <c r="X99" s="21" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A100" s="21">
+      <c r="A100" s="15">
         <v>98</v>
       </c>
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C100" s="23" t="s">
+      <c r="C100" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D100" t="s">
         <v>59</v>
       </c>
-      <c r="E100" s="19">
-        <v>1</v>
-      </c>
-      <c r="F100" s="8">
+      <c r="E100" s="13">
+        <v>1</v>
+      </c>
+      <c r="F100" s="2">
         <v>0</v>
       </c>
-      <c r="G100" s="9">
+      <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100">
@@ -10582,16 +10561,16 @@
       <c r="M100">
         <v>46.762999999999998</v>
       </c>
-      <c r="N100" s="20">
+      <c r="N100" s="14">
         <v>1.3499999999999999E-51</v>
       </c>
-      <c r="O100" s="20">
+      <c r="O100" s="14">
         <v>3.21E-31</v>
       </c>
-      <c r="P100" s="7">
+      <c r="P100" s="1">
         <v>220</v>
       </c>
-      <c r="Q100" s="7">
+      <c r="Q100" s="1">
         <v>139</v>
       </c>
       <c r="T100" t="s">
@@ -10606,30 +10585,30 @@
       <c r="W100" t="s">
         <v>772</v>
       </c>
-      <c r="X100" s="7" t="s">
+      <c r="X100" s="1" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A101" s="28">
+      <c r="A101" s="22">
         <v>99</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C101" s="23" t="s">
+      <c r="C101" s="17" t="s">
         <v>572</v>
       </c>
       <c r="D101" t="s">
         <v>774</v>
       </c>
-      <c r="E101" s="19">
+      <c r="E101" s="13">
         <v>-1</v>
       </c>
-      <c r="F101" s="8">
+      <c r="F101" s="2">
         <v>0</v>
       </c>
-      <c r="G101" s="9">
+      <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101">
@@ -10650,16 +10629,16 @@
       <c r="M101">
         <v>45.652000000000001</v>
       </c>
-      <c r="N101" s="20">
+      <c r="N101" s="14">
         <v>5.0600000000000001E-52</v>
       </c>
-      <c r="O101" s="20">
+      <c r="O101" s="14">
         <v>5.3099999999999996E-28</v>
       </c>
-      <c r="P101" s="7">
+      <c r="P101" s="1">
         <v>223</v>
       </c>
-      <c r="Q101" s="7">
+      <c r="Q101" s="1">
         <v>138</v>
       </c>
       <c r="S101" t="s">
@@ -10677,30 +10656,30 @@
       <c r="W101" t="s">
         <v>779</v>
       </c>
-      <c r="X101" s="27" t="s">
+      <c r="X101" s="21" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A102" s="21">
+      <c r="A102" s="15">
         <v>100</v>
       </c>
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C102" s="23" t="s">
+      <c r="C102" s="17" t="s">
         <v>248</v>
       </c>
       <c r="D102" t="s">
         <v>249</v>
       </c>
-      <c r="E102" s="19">
-        <v>1</v>
-      </c>
-      <c r="F102" s="8">
+      <c r="E102" s="13">
+        <v>1</v>
+      </c>
+      <c r="F102" s="2">
         <v>0</v>
       </c>
-      <c r="G102" s="9">
+      <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102">
@@ -10721,16 +10700,16 @@
       <c r="M102">
         <v>38.345999999999997</v>
       </c>
-      <c r="N102" s="20">
+      <c r="N102" s="14">
         <v>7.4500000000000003E-40</v>
       </c>
-      <c r="O102" s="20">
+      <c r="O102" s="14">
         <v>8.4099999999999999E-19</v>
       </c>
-      <c r="P102" s="7">
+      <c r="P102" s="1">
         <v>216</v>
       </c>
-      <c r="Q102" s="7">
+      <c r="Q102" s="1">
         <v>133</v>
       </c>
       <c r="T102" t="s">
@@ -10745,30 +10724,30 @@
       <c r="W102" t="s">
         <v>784</v>
       </c>
-      <c r="X102" s="7" t="s">
+      <c r="X102" s="1" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A103" s="17">
+      <c r="A103" s="11">
         <v>101</v>
       </c>
-      <c r="B103" s="17">
+      <c r="B103" s="11">
         <v>1000074</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="C103" s="12" t="s">
         <v>786</v>
       </c>
       <c r="D103" t="s">
         <v>787</v>
       </c>
-      <c r="E103" s="19">
-        <v>1</v>
-      </c>
-      <c r="F103" s="8">
-        <v>1</v>
-      </c>
-      <c r="G103" s="9">
+      <c r="E103" s="13">
+        <v>1</v>
+      </c>
+      <c r="F103" s="2">
+        <v>1</v>
+      </c>
+      <c r="G103" s="3">
         <v>1</v>
       </c>
       <c r="H103">
@@ -10789,16 +10768,16 @@
       <c r="M103">
         <v>59.750999999999998</v>
       </c>
-      <c r="N103" s="20">
+      <c r="N103" s="14">
         <v>6.2100000000000001E-129</v>
       </c>
-      <c r="O103" s="20">
+      <c r="O103" s="14">
         <v>3.2100000000000002E-65</v>
       </c>
-      <c r="P103" s="7">
+      <c r="P103" s="1">
         <v>228</v>
       </c>
-      <c r="Q103" s="7">
+      <c r="Q103" s="1">
         <v>241</v>
       </c>
       <c r="R103" t="s">
@@ -10819,30 +10798,30 @@
       <c r="W103" t="s">
         <v>793</v>
       </c>
-      <c r="X103" s="7" t="s">
+      <c r="X103" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A104" s="24">
+      <c r="A104" s="18">
         <v>102</v>
       </c>
-      <c r="B104" s="25">
+      <c r="B104" s="19">
         <v>1000079</v>
       </c>
-      <c r="C104" s="26" t="s">
+      <c r="C104" s="20" t="s">
         <v>794</v>
       </c>
       <c r="D104" t="s">
         <v>795</v>
       </c>
-      <c r="E104" s="19">
+      <c r="E104" s="13">
         <v>-1</v>
       </c>
-      <c r="F104" s="8">
-        <v>1</v>
-      </c>
-      <c r="G104" s="9">
+      <c r="F104" s="2">
+        <v>1</v>
+      </c>
+      <c r="G104" s="3">
         <v>1</v>
       </c>
       <c r="H104">
@@ -10863,16 +10842,16 @@
       <c r="M104">
         <v>100</v>
       </c>
-      <c r="N104" s="20">
+      <c r="N104" s="14">
         <v>3.7500000000000003E-164</v>
       </c>
-      <c r="O104" s="20">
+      <c r="O104" s="14">
         <v>2.0999999999999999E-142</v>
       </c>
-      <c r="P104" s="7">
+      <c r="P104" s="1">
         <v>255</v>
       </c>
-      <c r="Q104" s="7">
+      <c r="Q104" s="1">
         <v>219</v>
       </c>
       <c r="R104" t="s">
@@ -10893,30 +10872,30 @@
       <c r="W104" t="s">
         <v>801</v>
       </c>
-      <c r="X104" s="7" t="s">
+      <c r="X104" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A105" s="21">
+      <c r="A105" s="15">
         <v>105</v>
       </c>
-      <c r="B105" s="22" t="s">
+      <c r="B105" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C105" s="23" t="s">
+      <c r="C105" s="17" t="s">
         <v>414</v>
       </c>
       <c r="D105" t="s">
         <v>802</v>
       </c>
-      <c r="E105" s="19">
-        <v>1</v>
-      </c>
-      <c r="F105" s="8">
+      <c r="E105" s="13">
+        <v>1</v>
+      </c>
+      <c r="F105" s="2">
         <v>0</v>
       </c>
-      <c r="G105" s="9">
+      <c r="G105" s="3">
         <v>0</v>
       </c>
       <c r="H105">
@@ -10937,16 +10916,16 @@
       <c r="M105">
         <v>42.718000000000004</v>
       </c>
-      <c r="N105" s="20">
+      <c r="N105" s="14">
         <v>7.9800000000000001E-56</v>
       </c>
-      <c r="O105" s="20">
+      <c r="O105" s="14">
         <v>5.29E-22</v>
       </c>
-      <c r="P105" s="7">
+      <c r="P105" s="1">
         <v>228</v>
       </c>
-      <c r="Q105" s="7">
+      <c r="Q105" s="1">
         <v>103</v>
       </c>
       <c r="T105" t="s">
@@ -10961,30 +10940,30 @@
       <c r="W105" t="s">
         <v>806</v>
       </c>
-      <c r="X105" s="7" t="s">
+      <c r="X105" s="1" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A106" s="21">
+      <c r="A106" s="15">
         <v>106</v>
       </c>
-      <c r="B106" s="22" t="s">
+      <c r="B106" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C106" s="23" t="s">
+      <c r="C106" s="17" t="s">
         <v>462</v>
       </c>
       <c r="D106" t="s">
         <v>463</v>
       </c>
-      <c r="E106" s="19">
-        <v>1</v>
-      </c>
-      <c r="F106" s="8">
+      <c r="E106" s="13">
+        <v>1</v>
+      </c>
+      <c r="F106" s="2">
         <v>0</v>
       </c>
-      <c r="G106" s="9">
+      <c r="G106" s="3">
         <v>0</v>
       </c>
       <c r="H106">
@@ -11005,16 +10984,16 @@
       <c r="M106">
         <v>88.35</v>
       </c>
-      <c r="N106" s="20">
+      <c r="N106" s="14">
         <v>1.0100000000000001E-131</v>
       </c>
-      <c r="O106" s="20">
+      <c r="O106" s="14">
         <v>1.03E-58</v>
       </c>
-      <c r="P106" s="7">
+      <c r="P106" s="1">
         <v>232</v>
       </c>
-      <c r="Q106" s="7">
+      <c r="Q106" s="1">
         <v>103</v>
       </c>
       <c r="T106" t="s">
@@ -11029,30 +11008,30 @@
       <c r="W106" t="s">
         <v>811</v>
       </c>
-      <c r="X106" s="7" t="s">
+      <c r="X106" s="1" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A107" s="17">
+      <c r="A107" s="11">
         <v>107</v>
       </c>
-      <c r="B107" s="17">
+      <c r="B107" s="11">
         <v>1000074</v>
       </c>
-      <c r="C107" s="18" t="s">
+      <c r="C107" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D107" t="s">
         <v>59</v>
       </c>
-      <c r="E107" s="19">
-        <v>1</v>
-      </c>
-      <c r="F107" s="8">
-        <v>1</v>
-      </c>
-      <c r="G107" s="9">
+      <c r="E107" s="13">
+        <v>1</v>
+      </c>
+      <c r="F107" s="2">
+        <v>1</v>
+      </c>
+      <c r="G107" s="3">
         <v>1</v>
       </c>
       <c r="H107">
@@ -11073,16 +11052,16 @@
       <c r="M107">
         <v>100</v>
       </c>
-      <c r="N107" s="20">
+      <c r="N107" s="14">
         <v>1.27E-150</v>
       </c>
-      <c r="O107" s="20">
+      <c r="O107" s="14">
         <v>9.0900000000000006E-67</v>
       </c>
-      <c r="P107" s="7">
+      <c r="P107" s="1">
         <v>232</v>
       </c>
-      <c r="Q107" s="7">
+      <c r="Q107" s="1">
         <v>105</v>
       </c>
       <c r="R107" t="s">
@@ -11103,815 +11082,809 @@
       <c r="W107" t="s">
         <v>818</v>
       </c>
-      <c r="X107" s="7" t="s">
+      <c r="X107" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A108" s="21">
-        <v>109</v>
-      </c>
-      <c r="B108" s="23" t="s">
+      <c r="A108" s="15">
+        <v>111</v>
+      </c>
+      <c r="B108" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C108" s="23" t="s">
-        <v>74</v>
+      <c r="C108" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="D108" t="s">
-        <v>75</v>
-      </c>
-      <c r="E108" s="19">
+        <v>115</v>
+      </c>
+      <c r="E108" s="13">
         <v>-1</v>
       </c>
-      <c r="F108" s="8">
-        <v>2</v>
-      </c>
-      <c r="G108" s="9">
+      <c r="F108" s="2">
         <v>0</v>
       </c>
+      <c r="G108" s="3">
+        <v>0</v>
+      </c>
       <c r="H108">
-        <v>620198</v>
+        <v>7267932</v>
       </c>
       <c r="I108">
-        <v>619530</v>
+        <v>7267267</v>
       </c>
       <c r="J108">
-        <v>619520</v>
+        <v>7267263</v>
       </c>
       <c r="K108">
-        <v>619212</v>
+        <v>7266955</v>
       </c>
       <c r="L108">
-        <v>35.652000000000001</v>
+        <v>88.739000000000004</v>
       </c>
       <c r="M108">
-        <v>39.805999999999997</v>
-      </c>
-      <c r="N108" s="20">
-        <v>4.7299999999999998E-31</v>
-      </c>
-      <c r="O108" s="20">
-        <v>3.3100000000000001E-15</v>
-      </c>
-      <c r="P108" s="7">
-        <v>230</v>
-      </c>
-      <c r="Q108" s="7">
+        <v>87.379000000000005</v>
+      </c>
+      <c r="N108" s="14">
+        <v>1.12E-126</v>
+      </c>
+      <c r="O108" s="14">
+        <v>4.8899999999999998E-57</v>
+      </c>
+      <c r="P108" s="1">
+        <v>222</v>
+      </c>
+      <c r="Q108" s="1">
         <v>103</v>
       </c>
-      <c r="R108" t="s">
+      <c r="T108" t="s">
         <v>819</v>
       </c>
-      <c r="S108" t="s">
+      <c r="U108" t="s">
         <v>820</v>
       </c>
-      <c r="T108" t="s">
+      <c r="V108" t="s">
         <v>821</v>
       </c>
-      <c r="U108" t="s">
+      <c r="W108" t="s">
         <v>822</v>
       </c>
-      <c r="V108" t="s">
+      <c r="X108" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A109" s="15">
+        <v>113</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D109" t="s">
+        <v>147</v>
+      </c>
+      <c r="E109" s="13">
+        <v>1</v>
+      </c>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
+      <c r="G109" s="3">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>6733196</v>
+      </c>
+      <c r="I109">
+        <v>6733861</v>
+      </c>
+      <c r="J109">
+        <v>6733868</v>
+      </c>
+      <c r="K109">
+        <v>6734167</v>
+      </c>
+      <c r="L109">
+        <v>89.188999999999993</v>
+      </c>
+      <c r="M109">
+        <v>91</v>
+      </c>
+      <c r="N109" s="14">
+        <v>3.9000000000000001E-129</v>
+      </c>
+      <c r="O109" s="14">
+        <v>2.7600000000000001E-57</v>
+      </c>
+      <c r="P109" s="1">
+        <v>222</v>
+      </c>
+      <c r="Q109" s="1">
+        <v>100</v>
+      </c>
+      <c r="T109" t="s">
         <v>823</v>
       </c>
-      <c r="W108" t="s">
+      <c r="U109" t="s">
         <v>824</v>
       </c>
-      <c r="X108" s="7" t="s">
+      <c r="V109" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A109" s="21">
-        <v>111</v>
-      </c>
-      <c r="B109" s="22" t="s">
+      <c r="W109" t="s">
+        <v>826</v>
+      </c>
+      <c r="X109" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A110" s="15">
+        <v>115</v>
+      </c>
+      <c r="B110" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C109" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D109" t="s">
-        <v>115</v>
-      </c>
-      <c r="E109" s="19">
+      <c r="C110" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="D110" t="s">
+        <v>503</v>
+      </c>
+      <c r="E110" s="13">
+        <v>1</v>
+      </c>
+      <c r="F110" s="2">
+        <v>0</v>
+      </c>
+      <c r="G110" s="3">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>4479031</v>
+      </c>
+      <c r="I110">
+        <v>4479714</v>
+      </c>
+      <c r="J110">
+        <v>4479727</v>
+      </c>
+      <c r="K110">
+        <v>4480035</v>
+      </c>
+      <c r="L110">
+        <v>33.058</v>
+      </c>
+      <c r="M110">
+        <v>40.777000000000001</v>
+      </c>
+      <c r="N110" s="14">
+        <v>1.0699999999999999E-24</v>
+      </c>
+      <c r="O110" s="14">
+        <v>1.8399999999999999E-19</v>
+      </c>
+      <c r="P110" s="1">
+        <v>242</v>
+      </c>
+      <c r="Q110" s="1">
+        <v>103</v>
+      </c>
+      <c r="T110" t="s">
+        <v>828</v>
+      </c>
+      <c r="U110" t="s">
+        <v>829</v>
+      </c>
+      <c r="V110" t="s">
+        <v>830</v>
+      </c>
+      <c r="W110" t="s">
+        <v>831</v>
+      </c>
+      <c r="X110" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A111" s="15">
+        <v>117</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="D111" t="s">
+        <v>661</v>
+      </c>
+      <c r="E111" s="13">
         <v>-1</v>
       </c>
-      <c r="F109" s="8">
+      <c r="F111" s="2">
         <v>0</v>
       </c>
-      <c r="G109" s="9">
+      <c r="G111" s="3">
         <v>0</v>
       </c>
-      <c r="H109">
-        <v>7267932</v>
-      </c>
-      <c r="I109">
-        <v>7267267</v>
-      </c>
-      <c r="J109">
-        <v>7267263</v>
-      </c>
-      <c r="K109">
-        <v>7266955</v>
-      </c>
-      <c r="L109">
+      <c r="H111">
+        <v>478149</v>
+      </c>
+      <c r="I111">
+        <v>477460</v>
+      </c>
+      <c r="J111">
+        <v>477432</v>
+      </c>
+      <c r="K111">
+        <v>477124</v>
+      </c>
+      <c r="L111">
+        <v>46.780999999999999</v>
+      </c>
+      <c r="M111">
+        <v>45.631</v>
+      </c>
+      <c r="N111" s="14">
+        <v>2.5200000000000001E-39</v>
+      </c>
+      <c r="O111" s="14">
+        <v>1.95E-21</v>
+      </c>
+      <c r="P111" s="1">
+        <v>233</v>
+      </c>
+      <c r="Q111" s="1">
+        <v>103</v>
+      </c>
+      <c r="T111" t="s">
+        <v>833</v>
+      </c>
+      <c r="U111" t="s">
+        <v>834</v>
+      </c>
+      <c r="V111" t="s">
+        <v>835</v>
+      </c>
+      <c r="W111" t="s">
+        <v>836</v>
+      </c>
+      <c r="X111" s="21" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A112" s="15">
+        <v>118</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D112" t="s">
+        <v>186</v>
+      </c>
+      <c r="E112" s="13">
+        <v>1</v>
+      </c>
+      <c r="F112" s="2">
+        <v>0</v>
+      </c>
+      <c r="G112" s="3">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>7733396</v>
+      </c>
+      <c r="I112">
+        <v>7734046</v>
+      </c>
+      <c r="J112">
+        <v>7734074</v>
+      </c>
+      <c r="K112">
+        <v>7734370</v>
+      </c>
+      <c r="L112">
+        <v>49.115000000000002</v>
+      </c>
+      <c r="M112">
+        <v>39.423000000000002</v>
+      </c>
+      <c r="N112" s="14">
+        <v>6.5199999999999998E-46</v>
+      </c>
+      <c r="O112" s="14">
+        <v>2.44E-17</v>
+      </c>
+      <c r="P112" s="1">
+        <v>226</v>
+      </c>
+      <c r="Q112" s="1">
+        <v>104</v>
+      </c>
+      <c r="T112" t="s">
+        <v>838</v>
+      </c>
+      <c r="U112" t="s">
+        <v>839</v>
+      </c>
+      <c r="V112" t="s">
+        <v>840</v>
+      </c>
+      <c r="W112" t="s">
+        <v>841</v>
+      </c>
+      <c r="X112" s="21" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A113" s="15">
+        <v>119</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="D113" t="s">
+        <v>510</v>
+      </c>
+      <c r="E113" s="13">
+        <v>-1</v>
+      </c>
+      <c r="F113" s="2">
+        <v>0</v>
+      </c>
+      <c r="G113" s="3">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>4051214</v>
+      </c>
+      <c r="I113">
+        <v>4050549</v>
+      </c>
+      <c r="J113">
+        <v>4050545</v>
+      </c>
+      <c r="K113">
+        <v>4050237</v>
+      </c>
+      <c r="L113">
         <v>88.739000000000004</v>
       </c>
-      <c r="M109">
-        <v>87.379000000000005</v>
-      </c>
-      <c r="N109" s="20">
-        <v>1.12E-126</v>
-      </c>
-      <c r="O109" s="20">
-        <v>4.8899999999999998E-57</v>
-      </c>
-      <c r="P109" s="7">
+      <c r="M113">
+        <v>89.32</v>
+      </c>
+      <c r="N113" s="14">
+        <v>7.5899999999999999E-128</v>
+      </c>
+      <c r="O113" s="14">
+        <v>7.0699999999999996E-59</v>
+      </c>
+      <c r="P113" s="1">
         <v>222</v>
       </c>
-      <c r="Q109" s="7">
+      <c r="Q113" s="1">
         <v>103</v>
       </c>
-      <c r="T109" t="s">
-        <v>826</v>
-      </c>
-      <c r="U109" t="s">
-        <v>827</v>
-      </c>
-      <c r="V109" t="s">
-        <v>828</v>
-      </c>
-      <c r="W109" t="s">
-        <v>829</v>
-      </c>
-      <c r="X109" s="7" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A110" s="21">
-        <v>113</v>
-      </c>
-      <c r="B110" s="22" t="s">
+      <c r="T113" t="s">
+        <v>843</v>
+      </c>
+      <c r="U113" t="s">
+        <v>844</v>
+      </c>
+      <c r="V113" t="s">
+        <v>845</v>
+      </c>
+      <c r="W113" t="s">
+        <v>846</v>
+      </c>
+      <c r="X113" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A114" s="15">
+        <v>120</v>
+      </c>
+      <c r="B114" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C110" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="D110" t="s">
-        <v>147</v>
-      </c>
-      <c r="E110" s="19">
-        <v>1</v>
-      </c>
-      <c r="F110" s="8">
-        <v>0</v>
-      </c>
-      <c r="G110" s="9">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>6733196</v>
-      </c>
-      <c r="I110">
-        <v>6733861</v>
-      </c>
-      <c r="J110">
-        <v>6733868</v>
-      </c>
-      <c r="K110">
-        <v>6734167</v>
-      </c>
-      <c r="L110">
-        <v>89.188999999999993</v>
-      </c>
-      <c r="M110">
-        <v>91</v>
-      </c>
-      <c r="N110" s="20">
-        <v>3.9000000000000001E-129</v>
-      </c>
-      <c r="O110" s="20">
-        <v>2.7600000000000001E-57</v>
-      </c>
-      <c r="P110" s="7">
-        <v>222</v>
-      </c>
-      <c r="Q110" s="7">
-        <v>100</v>
-      </c>
-      <c r="T110" t="s">
-        <v>830</v>
-      </c>
-      <c r="U110" t="s">
-        <v>831</v>
-      </c>
-      <c r="V110" t="s">
-        <v>832</v>
-      </c>
-      <c r="W110" t="s">
-        <v>833</v>
-      </c>
-      <c r="X110" s="7" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A111" s="21">
-        <v>115</v>
-      </c>
-      <c r="B111" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C111" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="D111" t="s">
-        <v>503</v>
-      </c>
-      <c r="E111" s="19">
-        <v>1</v>
-      </c>
-      <c r="F111" s="8">
-        <v>0</v>
-      </c>
-      <c r="G111" s="9">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>4479031</v>
-      </c>
-      <c r="I111">
-        <v>4479714</v>
-      </c>
-      <c r="J111">
-        <v>4479727</v>
-      </c>
-      <c r="K111">
-        <v>4480035</v>
-      </c>
-      <c r="L111">
-        <v>33.058</v>
-      </c>
-      <c r="M111">
-        <v>40.777000000000001</v>
-      </c>
-      <c r="N111" s="20">
-        <v>1.0699999999999999E-24</v>
-      </c>
-      <c r="O111" s="20">
-        <v>1.8399999999999999E-19</v>
-      </c>
-      <c r="P111" s="7">
-        <v>242</v>
-      </c>
-      <c r="Q111" s="7">
-        <v>103</v>
-      </c>
-      <c r="T111" t="s">
-        <v>835</v>
-      </c>
-      <c r="U111" t="s">
-        <v>836</v>
-      </c>
-      <c r="V111" t="s">
-        <v>837</v>
-      </c>
-      <c r="W111" t="s">
-        <v>838</v>
-      </c>
-      <c r="X111" s="7" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A112" s="21">
-        <v>117</v>
-      </c>
-      <c r="B112" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C112" s="23" t="s">
-        <v>660</v>
-      </c>
-      <c r="D112" t="s">
-        <v>661</v>
-      </c>
-      <c r="E112" s="19">
-        <v>-1</v>
-      </c>
-      <c r="F112" s="8">
-        <v>0</v>
-      </c>
-      <c r="G112" s="9">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>478149</v>
-      </c>
-      <c r="I112">
-        <v>477460</v>
-      </c>
-      <c r="J112">
-        <v>477432</v>
-      </c>
-      <c r="K112">
-        <v>477124</v>
-      </c>
-      <c r="L112">
-        <v>46.780999999999999</v>
-      </c>
-      <c r="M112">
-        <v>45.631</v>
-      </c>
-      <c r="N112" s="20">
-        <v>2.5200000000000001E-39</v>
-      </c>
-      <c r="O112" s="20">
-        <v>1.95E-21</v>
-      </c>
-      <c r="P112" s="7">
-        <v>233</v>
-      </c>
-      <c r="Q112" s="7">
-        <v>103</v>
-      </c>
-      <c r="T112" t="s">
-        <v>840</v>
-      </c>
-      <c r="U112" t="s">
-        <v>841</v>
-      </c>
-      <c r="V112" t="s">
-        <v>842</v>
-      </c>
-      <c r="W112" t="s">
-        <v>843</v>
-      </c>
-      <c r="X112" s="27" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A113" s="21">
-        <v>118</v>
-      </c>
-      <c r="B113" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C113" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="D113" t="s">
-        <v>186</v>
-      </c>
-      <c r="E113" s="19">
-        <v>1</v>
-      </c>
-      <c r="F113" s="8">
-        <v>0</v>
-      </c>
-      <c r="G113" s="9">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>7733396</v>
-      </c>
-      <c r="I113">
-        <v>7734046</v>
-      </c>
-      <c r="J113">
-        <v>7734074</v>
-      </c>
-      <c r="K113">
-        <v>7734370</v>
-      </c>
-      <c r="L113">
-        <v>49.115000000000002</v>
-      </c>
-      <c r="M113">
-        <v>39.423000000000002</v>
-      </c>
-      <c r="N113" s="20">
-        <v>6.5199999999999998E-46</v>
-      </c>
-      <c r="O113" s="20">
-        <v>2.44E-17</v>
-      </c>
-      <c r="P113" s="7">
-        <v>226</v>
-      </c>
-      <c r="Q113" s="7">
-        <v>104</v>
-      </c>
-      <c r="T113" t="s">
-        <v>845</v>
-      </c>
-      <c r="U113" t="s">
-        <v>846</v>
-      </c>
-      <c r="V113" t="s">
-        <v>847</v>
-      </c>
-      <c r="W113" t="s">
-        <v>848</v>
-      </c>
-      <c r="X113" s="27" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A114" s="21">
-        <v>119</v>
-      </c>
-      <c r="B114" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C114" s="23" t="s">
+      <c r="C114" s="17" t="s">
         <v>509</v>
       </c>
       <c r="D114" t="s">
         <v>510</v>
       </c>
-      <c r="E114" s="19">
+      <c r="E114" s="13">
         <v>-1</v>
       </c>
-      <c r="F114" s="8">
+      <c r="F114" s="2">
         <v>0</v>
       </c>
-      <c r="G114" s="9">
+      <c r="G114" s="3">
         <v>0</v>
       </c>
       <c r="H114">
-        <v>4051214</v>
+        <v>4037248</v>
       </c>
       <c r="I114">
-        <v>4050549</v>
+        <v>4036583</v>
       </c>
       <c r="J114">
-        <v>4050545</v>
+        <v>4036567</v>
       </c>
       <c r="K114">
-        <v>4050237</v>
+        <v>4036301</v>
       </c>
       <c r="L114">
-        <v>88.739000000000004</v>
+        <v>34.482999999999997</v>
       </c>
       <c r="M114">
-        <v>89.32</v>
-      </c>
-      <c r="N114" s="20">
-        <v>7.5899999999999999E-128</v>
-      </c>
-      <c r="O114" s="20">
-        <v>7.0699999999999996E-59</v>
-      </c>
-      <c r="P114" s="7">
+        <v>45</v>
+      </c>
+      <c r="N114" s="14">
+        <v>1.26E-26</v>
+      </c>
+      <c r="O114" s="14">
+        <v>6.8000000000000004E-19</v>
+      </c>
+      <c r="P114" s="1">
+        <v>232</v>
+      </c>
+      <c r="Q114" s="1">
+        <v>100</v>
+      </c>
+      <c r="T114" t="s">
+        <v>847</v>
+      </c>
+      <c r="U114" t="s">
+        <v>848</v>
+      </c>
+      <c r="V114" t="s">
+        <v>849</v>
+      </c>
+      <c r="W114" t="s">
+        <v>850</v>
+      </c>
+      <c r="X114" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A115" s="15">
+        <v>123</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D115" t="s">
+        <v>852</v>
+      </c>
+      <c r="E115" s="13">
+        <v>1</v>
+      </c>
+      <c r="F115" s="2">
+        <v>0</v>
+      </c>
+      <c r="G115" s="3">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>56711</v>
+      </c>
+      <c r="I115">
+        <v>57376</v>
+      </c>
+      <c r="J115">
+        <v>57392</v>
+      </c>
+      <c r="K115">
+        <v>57679</v>
+      </c>
+      <c r="L115">
+        <v>37.930999999999997</v>
+      </c>
+      <c r="M115">
+        <v>41</v>
+      </c>
+      <c r="N115" s="14">
+        <v>5.2700000000000001E-31</v>
+      </c>
+      <c r="O115" s="14">
+        <v>1.3E-15</v>
+      </c>
+      <c r="P115" s="1">
+        <v>232</v>
+      </c>
+      <c r="Q115" s="1">
+        <v>100</v>
+      </c>
+      <c r="T115" t="s">
+        <v>853</v>
+      </c>
+      <c r="U115" t="s">
+        <v>854</v>
+      </c>
+      <c r="V115" t="s">
+        <v>855</v>
+      </c>
+      <c r="W115" t="s">
+        <v>856</v>
+      </c>
+      <c r="X115" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A116" s="15">
+        <v>126</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D116" t="s">
+        <v>256</v>
+      </c>
+      <c r="E116" s="13">
+        <v>1</v>
+      </c>
+      <c r="F116" s="2">
+        <v>0</v>
+      </c>
+      <c r="G116" s="3">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>2057817</v>
+      </c>
+      <c r="I116">
+        <v>2058473</v>
+      </c>
+      <c r="J116">
+        <v>2058489</v>
+      </c>
+      <c r="K116">
+        <v>2058788</v>
+      </c>
+      <c r="L116">
+        <v>36.363999999999997</v>
+      </c>
+      <c r="M116">
+        <v>40</v>
+      </c>
+      <c r="N116" s="14">
+        <v>2.2199999999999998E-28</v>
+      </c>
+      <c r="O116" s="14">
+        <v>1.5E-17</v>
+      </c>
+      <c r="P116" s="1">
+        <v>231</v>
+      </c>
+      <c r="Q116" s="1">
+        <v>100</v>
+      </c>
+      <c r="T116" t="s">
+        <v>858</v>
+      </c>
+      <c r="U116" t="s">
+        <v>859</v>
+      </c>
+      <c r="V116" t="s">
+        <v>860</v>
+      </c>
+      <c r="W116" t="s">
+        <v>861</v>
+      </c>
+      <c r="X116" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A117" s="15">
+        <v>127</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D117" t="s">
+        <v>264</v>
+      </c>
+      <c r="E117" s="13">
+        <v>1</v>
+      </c>
+      <c r="F117" s="2">
+        <v>0</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>359151</v>
+      </c>
+      <c r="I117">
+        <v>359816</v>
+      </c>
+      <c r="J117">
+        <v>359820</v>
+      </c>
+      <c r="K117">
+        <v>360134</v>
+      </c>
+      <c r="L117">
+        <v>89.188999999999993</v>
+      </c>
+      <c r="M117">
+        <v>89.524000000000001</v>
+      </c>
+      <c r="N117" s="14">
+        <v>6.6200000000000005E-122</v>
+      </c>
+      <c r="O117" s="14">
+        <v>3.8100000000000001E-59</v>
+      </c>
+      <c r="P117" s="1">
         <v>222</v>
       </c>
-      <c r="Q114" s="7">
-        <v>103</v>
-      </c>
-      <c r="T114" t="s">
-        <v>850</v>
-      </c>
-      <c r="U114" t="s">
-        <v>851</v>
-      </c>
-      <c r="V114" t="s">
-        <v>852</v>
-      </c>
-      <c r="W114" t="s">
-        <v>853</v>
-      </c>
-      <c r="X114" s="7" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A115" s="21">
-        <v>120</v>
-      </c>
-      <c r="B115" s="22" t="s">
+      <c r="Q117" s="1">
+        <v>105</v>
+      </c>
+      <c r="T117" t="s">
+        <v>863</v>
+      </c>
+      <c r="U117" t="s">
+        <v>864</v>
+      </c>
+      <c r="V117" t="s">
+        <v>865</v>
+      </c>
+      <c r="W117" t="s">
+        <v>866</v>
+      </c>
+      <c r="X117" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A118" s="15">
+        <v>129</v>
+      </c>
+      <c r="B118" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C115" s="23" t="s">
-        <v>509</v>
-      </c>
-      <c r="D115" t="s">
-        <v>510</v>
-      </c>
-      <c r="E115" s="19">
+      <c r="C118" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="D118" t="s">
+        <v>867</v>
+      </c>
+      <c r="E118" s="13">
         <v>-1</v>
       </c>
-      <c r="F115" s="8">
+      <c r="F118" s="2">
         <v>0</v>
       </c>
-      <c r="G115" s="9">
+      <c r="G118" s="3">
         <v>0</v>
       </c>
-      <c r="H115">
-        <v>4037248</v>
-      </c>
-      <c r="I115">
-        <v>4036583</v>
-      </c>
-      <c r="J115">
-        <v>4036567</v>
-      </c>
-      <c r="K115">
-        <v>4036301</v>
-      </c>
-      <c r="L115">
-        <v>34.482999999999997</v>
-      </c>
-      <c r="M115">
-        <v>45</v>
-      </c>
-      <c r="N115" s="20">
-        <v>1.26E-26</v>
-      </c>
-      <c r="O115" s="20">
-        <v>6.8000000000000004E-19</v>
-      </c>
-      <c r="P115" s="7">
-        <v>232</v>
-      </c>
-      <c r="Q115" s="7">
-        <v>100</v>
-      </c>
-      <c r="T115" t="s">
-        <v>854</v>
-      </c>
-      <c r="U115" t="s">
-        <v>855</v>
-      </c>
-      <c r="V115" t="s">
-        <v>856</v>
-      </c>
-      <c r="W115" t="s">
-        <v>857</v>
-      </c>
-      <c r="X115" s="7" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A116" s="21">
-        <v>123</v>
-      </c>
-      <c r="B116" s="22" t="s">
+      <c r="H118">
+        <v>22795</v>
+      </c>
+      <c r="I118">
+        <v>22127</v>
+      </c>
+      <c r="J118">
+        <v>22108</v>
+      </c>
+      <c r="K118">
+        <v>21779</v>
+      </c>
+      <c r="L118">
+        <v>50.442</v>
+      </c>
+      <c r="M118">
+        <v>40</v>
+      </c>
+      <c r="N118" s="14">
+        <v>3.48E-58</v>
+      </c>
+      <c r="O118" s="14">
+        <v>3.5100000000000002E-21</v>
+      </c>
+      <c r="P118" s="1">
+        <v>226</v>
+      </c>
+      <c r="Q118" s="1">
+        <v>110</v>
+      </c>
+      <c r="T118" t="s">
+        <v>868</v>
+      </c>
+      <c r="U118" t="s">
+        <v>869</v>
+      </c>
+      <c r="V118" t="s">
+        <v>870</v>
+      </c>
+      <c r="W118" t="s">
+        <v>871</v>
+      </c>
+      <c r="X118" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A119" s="15">
+        <v>136</v>
+      </c>
+      <c r="B119" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C116" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="D116" t="s">
-        <v>859</v>
-      </c>
-      <c r="E116" s="19">
-        <v>1</v>
-      </c>
-      <c r="F116" s="8">
-        <v>0</v>
-      </c>
-      <c r="G116" s="9">
-        <v>0</v>
-      </c>
-      <c r="H116">
-        <v>56711</v>
-      </c>
-      <c r="I116">
-        <v>57376</v>
-      </c>
-      <c r="J116">
-        <v>57392</v>
-      </c>
-      <c r="K116">
-        <v>57679</v>
-      </c>
-      <c r="L116">
-        <v>37.930999999999997</v>
-      </c>
-      <c r="M116">
-        <v>41</v>
-      </c>
-      <c r="N116" s="20">
-        <v>5.2700000000000001E-31</v>
-      </c>
-      <c r="O116" s="20">
-        <v>1.3E-15</v>
-      </c>
-      <c r="P116" s="7">
-        <v>232</v>
-      </c>
-      <c r="Q116" s="7">
-        <v>100</v>
-      </c>
-      <c r="T116" t="s">
-        <v>860</v>
-      </c>
-      <c r="U116" t="s">
-        <v>861</v>
-      </c>
-      <c r="V116" t="s">
-        <v>862</v>
-      </c>
-      <c r="W116" t="s">
-        <v>863</v>
-      </c>
-      <c r="X116" s="7" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A117" s="21">
-        <v>126</v>
-      </c>
-      <c r="B117" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C117" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="D117" t="s">
-        <v>256</v>
-      </c>
-      <c r="E117" s="19">
-        <v>1</v>
-      </c>
-      <c r="F117" s="8">
-        <v>0</v>
-      </c>
-      <c r="G117" s="9">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>2057817</v>
-      </c>
-      <c r="I117">
-        <v>2058473</v>
-      </c>
-      <c r="J117">
-        <v>2058489</v>
-      </c>
-      <c r="K117">
-        <v>2058788</v>
-      </c>
-      <c r="L117">
-        <v>36.363999999999997</v>
-      </c>
-      <c r="M117">
-        <v>40</v>
-      </c>
-      <c r="N117" s="20">
-        <v>2.2199999999999998E-28</v>
-      </c>
-      <c r="O117" s="20">
-        <v>1.5E-17</v>
-      </c>
-      <c r="P117" s="7">
-        <v>231</v>
-      </c>
-      <c r="Q117" s="7">
-        <v>100</v>
-      </c>
-      <c r="T117" t="s">
-        <v>865</v>
-      </c>
-      <c r="U117" t="s">
-        <v>866</v>
-      </c>
-      <c r="V117" t="s">
-        <v>867</v>
-      </c>
-      <c r="W117" t="s">
-        <v>868</v>
-      </c>
-      <c r="X117" s="7" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A118" s="21">
-        <v>127</v>
-      </c>
-      <c r="B118" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C118" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="D118" t="s">
-        <v>264</v>
-      </c>
-      <c r="E118" s="19">
-        <v>1</v>
-      </c>
-      <c r="F118" s="8">
-        <v>0</v>
-      </c>
-      <c r="G118" s="9">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>359151</v>
-      </c>
-      <c r="I118">
-        <v>359816</v>
-      </c>
-      <c r="J118">
-        <v>359820</v>
-      </c>
-      <c r="K118">
-        <v>360134</v>
-      </c>
-      <c r="L118">
-        <v>89.188999999999993</v>
-      </c>
-      <c r="M118">
-        <v>89.524000000000001</v>
-      </c>
-      <c r="N118" s="20">
-        <v>6.6200000000000005E-122</v>
-      </c>
-      <c r="O118" s="20">
-        <v>3.8100000000000001E-59</v>
-      </c>
-      <c r="P118" s="7">
-        <v>222</v>
-      </c>
-      <c r="Q118" s="7">
-        <v>105</v>
-      </c>
-      <c r="T118" t="s">
-        <v>870</v>
-      </c>
-      <c r="U118" t="s">
-        <v>871</v>
-      </c>
-      <c r="V118" t="s">
-        <v>872</v>
-      </c>
-      <c r="W118" t="s">
+      <c r="C119" s="17" t="s">
         <v>873</v>
-      </c>
-      <c r="X118" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A119" s="21">
-        <v>129</v>
-      </c>
-      <c r="B119" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C119" s="23" t="s">
-        <v>748</v>
       </c>
       <c r="D119" t="s">
         <v>874</v>
       </c>
-      <c r="E119" s="19">
-        <v>-1</v>
-      </c>
-      <c r="F119" s="8">
+      <c r="E119" s="13">
+        <v>1</v>
+      </c>
+      <c r="F119" s="2">
         <v>0</v>
       </c>
-      <c r="G119" s="9">
+      <c r="G119" s="3">
         <v>0</v>
       </c>
       <c r="H119">
-        <v>22795</v>
+        <v>49166</v>
       </c>
       <c r="I119">
-        <v>22127</v>
+        <v>49834</v>
       </c>
       <c r="J119">
-        <v>22108</v>
+        <v>49883</v>
       </c>
       <c r="K119">
-        <v>21779</v>
+        <v>50452</v>
       </c>
       <c r="L119">
-        <v>50.442</v>
+        <v>45.69</v>
       </c>
       <c r="M119">
-        <v>40</v>
-      </c>
-      <c r="N119" s="20">
-        <v>3.48E-58</v>
-      </c>
-      <c r="O119" s="20">
-        <v>3.5100000000000002E-21</v>
-      </c>
-      <c r="P119" s="7">
-        <v>226</v>
-      </c>
-      <c r="Q119" s="7">
-        <v>110</v>
+        <v>40.103999999999999</v>
+      </c>
+      <c r="N119" s="14">
+        <v>5.3900000000000003E-48</v>
+      </c>
+      <c r="O119" s="14">
+        <v>9.5799999999999996E-27</v>
+      </c>
+      <c r="P119" s="1">
+        <v>232</v>
+      </c>
+      <c r="Q119" s="1">
+        <v>192</v>
       </c>
       <c r="T119" t="s">
         <v>875</v>
@@ -11925,149 +11898,81 @@
       <c r="W119" t="s">
         <v>878</v>
       </c>
-      <c r="X119" s="7" t="s">
+      <c r="X119" s="21" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A120" s="21">
-        <v>136</v>
-      </c>
-      <c r="B120" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C120" s="23" t="s">
+      <c r="A120" s="18">
+        <v>137</v>
+      </c>
+      <c r="B120" s="19">
+        <v>1000079</v>
+      </c>
+      <c r="C120" s="20" t="s">
         <v>880</v>
       </c>
       <c r="D120" t="s">
         <v>881</v>
       </c>
-      <c r="E120" s="19">
-        <v>1</v>
-      </c>
-      <c r="F120" s="8">
-        <v>0</v>
-      </c>
-      <c r="G120" s="9">
-        <v>0</v>
+      <c r="E120" s="13">
+        <v>-1</v>
+      </c>
+      <c r="F120" s="2">
+        <v>1</v>
+      </c>
+      <c r="G120" s="3">
+        <v>1</v>
       </c>
       <c r="H120">
-        <v>49166</v>
+        <v>136714</v>
       </c>
       <c r="I120">
-        <v>49834</v>
+        <v>135893</v>
       </c>
       <c r="J120">
-        <v>49883</v>
+        <v>135889</v>
       </c>
       <c r="K120">
-        <v>50452</v>
+        <v>135197</v>
       </c>
       <c r="L120">
-        <v>45.69</v>
+        <v>100</v>
       </c>
       <c r="M120">
-        <v>40.103999999999999</v>
-      </c>
-      <c r="N120" s="20">
-        <v>5.3900000000000003E-48</v>
-      </c>
-      <c r="O120" s="20">
-        <v>9.5799999999999996E-27</v>
-      </c>
-      <c r="P120" s="7">
-        <v>232</v>
-      </c>
-      <c r="Q120" s="7">
-        <v>192</v>
+        <v>100</v>
+      </c>
+      <c r="N120" s="14">
+        <v>5.66E-179</v>
+      </c>
+      <c r="O120" s="14">
+        <v>2.7399999999999999E-148</v>
+      </c>
+      <c r="P120" s="1">
+        <v>274</v>
+      </c>
+      <c r="Q120" s="1">
+        <v>231</v>
+      </c>
+      <c r="R120" t="s">
+        <v>882</v>
+      </c>
+      <c r="S120" t="s">
+        <v>883</v>
       </c>
       <c r="T120" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="U120" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="V120" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="W120" t="s">
-        <v>885</v>
-      </c>
-      <c r="X120" s="27" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A121" s="24">
-        <v>137</v>
-      </c>
-      <c r="B121" s="25">
-        <v>1000079</v>
-      </c>
-      <c r="C121" s="26" t="s">
         <v>887</v>
       </c>
-      <c r="D121" t="s">
-        <v>888</v>
-      </c>
-      <c r="E121" s="19">
-        <v>-1</v>
-      </c>
-      <c r="F121" s="8">
-        <v>1</v>
-      </c>
-      <c r="G121" s="9">
-        <v>1</v>
-      </c>
-      <c r="H121">
-        <v>136714</v>
-      </c>
-      <c r="I121">
-        <v>135893</v>
-      </c>
-      <c r="J121">
-        <v>135889</v>
-      </c>
-      <c r="K121">
-        <v>135197</v>
-      </c>
-      <c r="L121">
-        <v>100</v>
-      </c>
-      <c r="M121">
-        <v>100</v>
-      </c>
-      <c r="N121" s="20">
-        <v>5.66E-179</v>
-      </c>
-      <c r="O121" s="20">
-        <v>2.7399999999999999E-148</v>
-      </c>
-      <c r="P121" s="7">
-        <v>274</v>
-      </c>
-      <c r="Q121" s="7">
-        <v>231</v>
-      </c>
-      <c r="R121" t="s">
-        <v>889</v>
-      </c>
-      <c r="S121" t="s">
-        <v>890</v>
-      </c>
-      <c r="T121" t="s">
-        <v>891</v>
-      </c>
-      <c r="U121" t="s">
-        <v>892</v>
-      </c>
-      <c r="V121" t="s">
-        <v>893</v>
-      </c>
-      <c r="W121" t="s">
-        <v>894</v>
-      </c>
-      <c r="X121" s="7" t="s">
+      <c r="X120" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -12102,29 +12007,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="46.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="7"/>
+    <col min="2" max="2" width="11.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>895</v>
+      <c r="B1" s="23" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="1">
         <v>3</v>
       </c>
     </row>
@@ -12132,7 +12037,7 @@
       <c r="A3" t="s">
         <v>509</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="1">
         <v>3</v>
       </c>
     </row>
@@ -12140,7 +12045,7 @@
       <c r="A4" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
     </row>
@@ -12148,7 +12053,7 @@
       <c r="A5" t="s">
         <v>398</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
     </row>
@@ -12156,7 +12061,7 @@
       <c r="A6" t="s">
         <v>414</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
     </row>
@@ -12164,7 +12069,7 @@
       <c r="A7" t="s">
         <v>462</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="1">
         <v>2</v>
       </c>
     </row>
@@ -12172,7 +12077,7 @@
       <c r="A8" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="1">
         <v>2</v>
       </c>
     </row>
@@ -12180,7 +12085,7 @@
       <c r="A9" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="1">
         <v>2</v>
       </c>
     </row>
@@ -12188,7 +12093,7 @@
       <c r="A10" t="s">
         <v>572</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="1">
         <v>2</v>
       </c>
     </row>
@@ -12196,7 +12101,7 @@
       <c r="A11" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="1">
         <v>2</v>
       </c>
     </row>
@@ -12204,7 +12109,7 @@
       <c r="A12" t="s">
         <v>502</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="1">
         <v>2</v>
       </c>
     </row>
@@ -12212,7 +12117,7 @@
       <c r="A13" t="s">
         <v>660</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="1">
         <v>2</v>
       </c>
     </row>
@@ -12220,7 +12125,7 @@
       <c r="A14" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="1">
         <v>2</v>
       </c>
     </row>
@@ -12228,7 +12133,7 @@
       <c r="A15" t="s">
         <v>216</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="1">
         <v>2</v>
       </c>
     </row>
@@ -12236,7 +12141,7 @@
       <c r="A16" t="s">
         <v>224</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="1">
         <v>2</v>
       </c>
     </row>
@@ -12244,7 +12149,7 @@
       <c r="A17" t="s">
         <v>674</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="1">
         <v>2</v>
       </c>
     </row>
@@ -12252,7 +12157,7 @@
       <c r="A18" t="s">
         <v>248</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="1">
         <v>2</v>
       </c>
     </row>
@@ -12260,7 +12165,7 @@
       <c r="A19" t="s">
         <v>255</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="1">
         <v>2</v>
       </c>
     </row>
@@ -12268,7 +12173,7 @@
       <c r="A20" t="s">
         <v>748</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="1">
         <v>2</v>
       </c>
     </row>
@@ -12276,15 +12181,15 @@
       <c r="A21" t="s">
         <v>350</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="25">
         <v>1</v>
       </c>
     </row>
@@ -12292,7 +12197,7 @@
       <c r="A23" t="s">
         <v>652</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12300,7 +12205,7 @@
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12308,7 +12213,7 @@
       <c r="A25" t="s">
         <v>718</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12316,7 +12221,7 @@
       <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12324,7 +12229,7 @@
       <c r="A27" t="s">
         <v>406</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12332,7 +12237,7 @@
       <c r="A28" t="s">
         <v>756</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12340,7 +12245,7 @@
       <c r="A29" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12348,7 +12253,7 @@
       <c r="A30" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12356,7 +12261,7 @@
       <c r="A31" t="s">
         <v>470</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12364,7 +12269,7 @@
       <c r="A32" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12372,7 +12277,7 @@
       <c r="A33" t="s">
         <v>478</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12380,7 +12285,7 @@
       <c r="A34" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12388,7 +12293,7 @@
       <c r="A35" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12396,7 +12301,7 @@
       <c r="A36" t="s">
         <v>596</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12404,7 +12309,7 @@
       <c r="A37" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12412,7 +12317,7 @@
       <c r="A38" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12420,7 +12325,7 @@
       <c r="A39" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12428,7 +12333,7 @@
       <c r="A40" t="s">
         <v>422</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12436,7 +12341,7 @@
       <c r="A41" t="s">
         <v>130</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12444,7 +12349,7 @@
       <c r="A42" t="s">
         <v>794</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12452,15 +12357,15 @@
       <c r="A43" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>887</v>
-      </c>
-      <c r="B44" s="7">
+        <v>880</v>
+      </c>
+      <c r="B44" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12468,7 +12373,7 @@
       <c r="A45" t="s">
         <v>430</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12476,7 +12381,7 @@
       <c r="A46" t="s">
         <v>154</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12484,7 +12389,7 @@
       <c r="A47" t="s">
         <v>486</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12492,7 +12397,7 @@
       <c r="A48" t="s">
         <v>494</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12500,7 +12405,7 @@
       <c r="A49" t="s">
         <v>438</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12508,7 +12413,7 @@
       <c r="A50" t="s">
         <v>161</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12516,7 +12421,7 @@
       <c r="A51" t="s">
         <v>169</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12524,7 +12429,7 @@
       <c r="A52" t="s">
         <v>177</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12532,7 +12437,7 @@
       <c r="A53" t="s">
         <v>193</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12540,7 +12445,7 @@
       <c r="A54" t="s">
         <v>580</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12548,7 +12453,7 @@
       <c r="A55" t="s">
         <v>726</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12556,7 +12461,7 @@
       <c r="A56" t="s">
         <v>733</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12564,7 +12469,7 @@
       <c r="A57" t="s">
         <v>588</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12572,7 +12477,7 @@
       <c r="A58" t="s">
         <v>666</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12580,7 +12485,7 @@
       <c r="A59" t="s">
         <v>200</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12588,7 +12493,7 @@
       <c r="A60" t="s">
         <v>208</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12596,7 +12501,7 @@
       <c r="A61" t="s">
         <v>517</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12604,7 +12509,7 @@
       <c r="A62" t="s">
         <v>604</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12612,7 +12517,7 @@
       <c r="A63" t="s">
         <v>232</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12620,7 +12525,7 @@
       <c r="A64" t="s">
         <v>740</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12628,7 +12533,7 @@
       <c r="A65" t="s">
         <v>240</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12636,7 +12541,7 @@
       <c r="A66" t="s">
         <v>271</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12644,7 +12549,7 @@
       <c r="A67" t="s">
         <v>786</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12652,7 +12557,7 @@
       <c r="A68" t="s">
         <v>612</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12660,7 +12565,7 @@
       <c r="A69" t="s">
         <v>278</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12668,7 +12573,7 @@
       <c r="A70" t="s">
         <v>524</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12676,15 +12581,15 @@
       <c r="A71" t="s">
         <v>286</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>880</v>
-      </c>
-      <c r="B72" s="7">
+        <v>873</v>
+      </c>
+      <c r="B72" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12692,7 +12597,7 @@
       <c r="A73" t="s">
         <v>294</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12700,7 +12605,7 @@
       <c r="A74" t="s">
         <v>302</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12708,7 +12613,7 @@
       <c r="A75" t="s">
         <v>532</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12716,7 +12621,7 @@
       <c r="A76" t="s">
         <v>689</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12724,7 +12629,7 @@
       <c r="A77" t="s">
         <v>695</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12732,7 +12637,7 @@
       <c r="A78" t="s">
         <v>620</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12740,7 +12645,7 @@
       <c r="A79" t="s">
         <v>539</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12748,7 +12653,7 @@
       <c r="A80" t="s">
         <v>310</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12756,7 +12661,7 @@
       <c r="A81" t="s">
         <v>446</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12764,7 +12669,7 @@
       <c r="A82" t="s">
         <v>318</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12772,7 +12677,7 @@
       <c r="A83" t="s">
         <v>326</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12780,7 +12685,7 @@
       <c r="A84" t="s">
         <v>334</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12788,7 +12693,7 @@
       <c r="A85" t="s">
         <v>454</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12796,7 +12701,7 @@
       <c r="A86" t="s">
         <v>548</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12804,7 +12709,7 @@
       <c r="A87" t="s">
         <v>556</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12812,7 +12717,7 @@
       <c r="A88" t="s">
         <v>564</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12820,7 +12725,7 @@
       <c r="A89" t="s">
         <v>703</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12828,7 +12733,7 @@
       <c r="A90" t="s">
         <v>342</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12836,7 +12741,7 @@
       <c r="A91" t="s">
         <v>633</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12844,7 +12749,7 @@
       <c r="A92" t="s">
         <v>358</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12852,7 +12757,7 @@
       <c r="A93" t="s">
         <v>710</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12860,7 +12765,7 @@
       <c r="A94" t="s">
         <v>366</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12868,7 +12773,7 @@
       <c r="A95" t="s">
         <v>374</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="1">
         <v>1</v>
       </c>
     </row>
@@ -12876,7 +12781,7 @@
       <c r="A96" t="s">
         <v>382</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="1">
         <v>1</v>
       </c>
     </row>

--- a/suppl_data/SupplData4 - statistic_AFTR-orthologs_Streptomyces.xlsx
+++ b/suppl_data/SupplData4 - statistic_AFTR-orthologs_Streptomyces.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/_my/github/article-tta-codon/suppl_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECBFA79-B740-C34A-9EB5-20297288DCC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8F1B15-E41D-BA4E-A7E3-336199E02757}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1960" windowWidth="38400" windowHeight="18040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1960" windowWidth="38400" windowHeight="18040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unique_AFTR-orthologs_Streptomy" sheetId="1" r:id="rId1"/>
@@ -3301,8 +3301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:XFD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -12007,8 +12007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
